--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90F229-37E8-8F4E-B8CD-85687C6799EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A181AB7-56EA-2D4C-9504-A64A9A529BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$307</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="799">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2432,6 +2432,12 @@
   </si>
   <si>
     <t>Thais</t>
+  </si>
+  <si>
+    <t>Beer o' Clock</t>
+  </si>
+  <si>
+    <t>(19) 99875-9979</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2567,6 +2573,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2883,11 +2890,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A1:G306"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4200,18 +4207,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>797</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="6">
-        <v>19993006755</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="D67" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="11" t="s">
         <v>772</v>
@@ -4219,38 +4224,38 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="6">
-        <v>19981486077</v>
+        <v>19993006755</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D69" s="6">
-        <v>19997743011</v>
+        <v>19981486077</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="8" t="s">
@@ -4262,42 +4267,38 @@
         <v>178</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="6">
-        <v>19998044958</v>
+        <v>19997743011</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D71" s="6">
-        <v>19974117768</v>
+        <v>19998044958</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>765</v>
+        <v>89</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>772</v>
@@ -4308,17 +4309,19 @@
         <v>184</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D72" s="6">
-        <v>19993384323</v>
+        <v>19974117768</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>191</v>
+        <v>765</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>772</v>
@@ -4329,16 +4332,18 @@
         <v>184</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="6">
-        <v>19974117768</v>
+        <v>19993384323</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G73" s="8" t="s">
         <v>772</v>
       </c>
@@ -4348,70 +4353,70 @@
         <v>184</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="6">
+        <v>19974117768</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="6">
         <v>19998087893</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="G75" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="2"/>
       <c r="D76" s="6"/>
       <c r="E76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="10" t="s">
-        <v>772</v>
+        <v>201</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="6">
-        <v>19981177545</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="10" t="s">
@@ -4424,10 +4429,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78" s="6">
-        <v>19997577471</v>
+        <v>19981177545</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>95</v>
@@ -4443,10 +4448,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D79" s="6">
-        <v>19981614616</v>
+        <v>19997577471</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>95</v>
@@ -4462,13 +4467,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="6">
-        <v>19981354844</v>
+        <v>19981614616</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="10" t="s">
@@ -4477,19 +4482,17 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D81" s="6">
-        <v>19998119589</v>
+        <v>19981354844</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="10" t="s">
@@ -4498,114 +4501,118 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="C82" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D82" s="6">
-        <v>19991656931</v>
+        <v>19998119589</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D83" s="6">
-        <v>19974074239</v>
+        <v>19991656931</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="G83" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="D84" s="6">
-        <v>19983550284</v>
+        <v>19974074239</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="6">
-        <v>19983838478</v>
+        <v>19983550284</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G85" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="6">
+        <v>19983838478</v>
+      </c>
       <c r="E86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="6"/>
       <c r="E87" s="2" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s">
@@ -4614,55 +4621,53 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="6" t="s">
-        <v>776</v>
-      </c>
+      <c r="D88" s="6"/>
       <c r="E88" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G89" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="6">
-        <v>6796723326</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="2"/>
       <c r="G90" t="s">
         <v>772</v>
       </c>
@@ -4671,12 +4676,12 @@
       <c r="A91" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D91" s="6">
-        <v>19981999121</v>
+        <v>6796723326</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>40</v>
@@ -4691,14 +4696,14 @@
         <v>246</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="6">
-        <v>19995447306</v>
+        <v>19981999121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="11" t="s">
@@ -4707,17 +4712,17 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="6">
-        <v>19974100212</v>
+        <v>19995447306</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="11" t="s">
@@ -4729,54 +4734,54 @@
         <v>251</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="6">
+        <v>19974100212</v>
+      </c>
       <c r="E94" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>770</v>
+        <v>253</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="11" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="6">
-        <v>19991517458</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G95" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D96" s="6">
-        <v>19997331433</v>
+        <v>19991517458</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="8" t="s">
@@ -4788,16 +4793,14 @@
         <v>261</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" s="6">
-        <v>19981558061</v>
+        <v>19997331433</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="8" t="s">
@@ -4809,14 +4812,16 @@
         <v>261</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D98" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="D98" s="6">
+        <v>19981558061</v>
+      </c>
       <c r="E98" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="8" t="s">
@@ -4828,18 +4833,16 @@
         <v>261</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="6">
-        <v>19982254000</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="8" t="s">
         <v>772</v>
       </c>
@@ -4849,17 +4852,17 @@
         <v>261</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="6">
-        <v>19997331433</v>
+        <v>19982254000</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>772</v>
@@ -4870,16 +4873,18 @@
         <v>261</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="6">
-        <v>19996049074</v>
+        <v>19997331433</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="G101" s="8" t="s">
         <v>772</v>
       </c>
@@ -4888,15 +4893,15 @@
       <c r="A102" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="B102" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" s="6">
-        <v>19383429</v>
+        <v>19996049074</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="8" t="s">
@@ -4907,17 +4912,15 @@
       <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D103" s="6">
-        <v>19982182</v>
+        <v>19383429</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="10" t="s">
@@ -4926,19 +4929,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D104" s="6">
-        <v>19997197564</v>
+        <v>19982182</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="10" t="s">
@@ -4947,38 +4950,40 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C105" s="2">
-        <v>3936.3072999999999</v>
+        <v>282</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D105" s="6">
-        <v>1939356190</v>
+        <v>19997197564</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" t="s">
+      <c r="G105" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3936.3072999999999</v>
+      </c>
       <c r="D106" s="6">
-        <v>19971197515</v>
+        <v>1939356190</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s">
@@ -4987,17 +4992,17 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="6">
-        <v>19987208820</v>
+        <v>19971197515</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s">
@@ -5009,14 +5014,14 @@
         <v>291</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="6">
-        <v>19996322904</v>
+        <v>19987208820</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s">
@@ -5028,18 +5033,16 @@
         <v>291</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="6">
-        <v>19971689885</v>
+        <v>19996322904</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F109" s="2"/>
       <c r="G109" t="s">
         <v>772</v>
       </c>
@@ -5049,33 +5052,35 @@
         <v>291</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="6">
-        <v>19987021223</v>
+        <v>19971689885</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="G110" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="6">
-        <v>19987450251</v>
+        <v>19987021223</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s">
@@ -5087,14 +5092,14 @@
         <v>288</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="6">
-        <v>19997160608</v>
+        <v>19987450251</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s">
@@ -5106,16 +5111,14 @@
         <v>288</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="6">
-        <v>19978973485</v>
+        <v>19997160608</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s">
@@ -5127,14 +5130,16 @@
         <v>288</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="D114" s="6">
-        <v>19989616668</v>
+        <v>19978973485</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s">
@@ -5143,15 +5148,17 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="6">
+        <v>19989616668</v>
+      </c>
       <c r="E115" s="2" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s">
@@ -5163,16 +5170,12 @@
         <v>305</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" s="6">
-        <v>19988881507</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="2" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s">
@@ -5181,19 +5184,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D117" s="6">
-        <v>19988186434</v>
+        <v>19988881507</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s">
@@ -5205,14 +5208,16 @@
         <v>307</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="D118" s="6">
-        <v>19992003165</v>
+        <v>19988186434</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s">
@@ -5221,17 +5226,17 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="6">
-        <v>19994944253</v>
+        <v>19992003165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="11" t="s">
@@ -5240,17 +5245,17 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D120" s="6">
-        <v>19982768600</v>
+        <v>19994944253</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="11" t="s">
@@ -5259,34 +5264,34 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="6">
+        <v>19982768600</v>
+      </c>
       <c r="E121" s="2" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="6">
-        <v>19970500222</v>
-      </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="2" t="s">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="8" t="s">
@@ -5298,18 +5303,16 @@
         <v>322</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="6">
-        <v>19981550926</v>
+        <v>19970500222</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="8" t="s">
         <v>772</v>
       </c>
@@ -5319,17 +5322,17 @@
         <v>322</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="6">
-        <v>19994915020</v>
+        <v>19981550926</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>772</v>
@@ -5340,16 +5343,18 @@
         <v>322</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="6">
-        <v>19994007804</v>
+        <v>19994915020</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="G125" s="8" t="s">
         <v>772</v>
       </c>
@@ -5359,18 +5364,16 @@
         <v>322</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="6">
-        <v>19997348273</v>
+        <v>19994007804</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="8" t="s">
         <v>772</v>
       </c>
@@ -5380,18 +5383,18 @@
         <v>322</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C127" s="2"/>
       <c r="D127" s="6">
-        <v>19992397490</v>
+        <v>19997348273</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F127" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="G127" s="8" t="s">
         <v>772</v>
       </c>
@@ -5401,16 +5404,16 @@
         <v>322</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D128" s="6">
-        <v>19974188185</v>
+        <v>19992397490</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="8" t="s">
@@ -5419,17 +5422,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="D129" s="6">
-        <v>19971501816</v>
+        <v>19974188185</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8" t="s">
@@ -5438,19 +5443,17 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>777</v>
+        <v>336</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C130" s="2"/>
       <c r="D130" s="6">
-        <v>19992397490</v>
+        <v>19971501816</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="8" t="s">
@@ -5462,16 +5465,16 @@
         <v>777</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D131" s="6">
-        <v>19974188185</v>
+        <v>19992397490</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="8" t="s">
@@ -5480,17 +5483,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>777</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="C132" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D132" s="6">
-        <v>19993365228</v>
+        <v>19974188185</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="8" t="s">
@@ -5501,15 +5506,15 @@
       <c r="A133" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="D133" s="6">
-        <v>19982892852</v>
+        <v>19993365228</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="8" t="s">
@@ -5520,38 +5525,38 @@
       <c r="A134" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="B134" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="6">
-        <v>19997151464</v>
+        <v>19982892852</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C135" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="D135" s="6">
-        <v>19983580744</v>
+        <v>19997151464</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="G135" s="8" t="s">
         <v>772</v>
       </c>
@@ -5561,16 +5566,14 @@
         <v>352</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C136" s="2"/>
       <c r="D136" s="6">
-        <v>19954381919</v>
+        <v>19983580744</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="8" t="s">
@@ -5582,16 +5585,16 @@
         <v>352</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="D137" s="6">
-        <v>19996601477</v>
+        <v>19954381919</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8" t="s">
@@ -5603,16 +5606,16 @@
         <v>352</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="D138" s="6">
-        <v>19971501618</v>
+        <v>19996601477</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="8" t="s">
@@ -5624,16 +5627,16 @@
         <v>352</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D139" s="6">
-        <v>19998370990</v>
+        <v>19971501618</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="8" t="s">
@@ -5645,16 +5648,16 @@
         <v>352</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D140" s="6">
-        <v>11933442554</v>
+        <v>19998370990</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="8" t="s">
@@ -5663,83 +5666,87 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D141" s="6">
-        <v>16997682703</v>
+        <v>11933442554</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D142" s="6">
-        <v>19991841308</v>
+        <v>16997682703</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F142" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="G142" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D143" s="6">
-        <v>19974202908</v>
+        <v>19991841308</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>372</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F143" s="2"/>
       <c r="G143" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="6"/>
+      <c r="D144" s="6">
+        <v>19974202908</v>
+      </c>
       <c r="E144" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="2"/>
-      <c r="G144" t="s">
+        <v>158</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G144" s="10" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5748,7 +5755,7 @@
         <v>377</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="6"/>
@@ -5765,14 +5772,12 @@
         <v>377</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="6">
-        <v>1938353479</v>
-      </c>
+      <c r="D146" s="6"/>
       <c r="E146" s="2" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s">
@@ -5781,22 +5786,20 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2" t="s">
-        <v>382</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="2"/>
       <c r="D147" s="6">
-        <v>19991112126</v>
+        <v>1938353479</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G147" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="11" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5804,117 +5807,119 @@
       <c r="A148" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>388</v>
-      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D148" s="6">
-        <v>19991615772</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" t="s">
+        <v>19991112126</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D149" s="6">
-        <v>19974054256</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G149" s="8" t="s">
+        <v>19991615772</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D150" s="6">
+        <v>19974054256</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="6">
+      <c r="C151" s="2"/>
+      <c r="D151" s="6">
         <v>19993876523</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="F150" s="2"/>
-      <c r="G150" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D152" s="6">
-        <v>199741500019</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F152" s="2"/>
-      <c r="G152" s="8" t="s">
+      <c r="G152" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C153" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D153" s="6">
-        <v>19999020595</v>
+        <v>199741500019</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" t="s">
+      <c r="G153" s="10" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5923,19 +5928,17 @@
         <v>398</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>402</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C154" s="2"/>
       <c r="D154" s="6">
-        <v>19991164395</v>
+        <v>19999020595</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="9" t="s">
+      <c r="G154" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5944,16 +5947,16 @@
         <v>398</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D155" s="6">
-        <v>19999317334</v>
+        <v>19991164395</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="9" t="s">
@@ -5964,74 +5967,76 @@
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="C156" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D156" s="6">
-        <v>19992499594</v>
+        <v>19999317334</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>407</v>
+        <v>69</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D157" s="6">
+        <v>19992499594</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C158" s="2">
         <v>3875.9299000000001</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D158" s="6">
         <v>19991663519</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="11"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D158" s="6">
-        <v>19996603159</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="8" t="s">
-        <v>772</v>
-      </c>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C159" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="D159" s="6">
-        <v>19983069292</v>
+        <v>19996603159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>768</v>
+        <v>400</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="8" t="s">
@@ -6040,17 +6045,17 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="6">
-        <v>1936561736</v>
+        <v>19983069292</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>418</v>
+        <v>768</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="8" t="s">
@@ -6059,19 +6064,17 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C161" s="2"/>
       <c r="D161" s="6">
-        <v>19997103010</v>
+        <v>1936561736</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="8" t="s">
@@ -6080,19 +6083,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D162" s="6">
-        <v>19974233582</v>
+        <v>19997103010</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="8" t="s">
@@ -6101,81 +6104,81 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>782</v>
+        <v>423</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>651</v>
+        <v>424</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="D163" s="6">
+        <v>19974233582</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="11" t="s">
+      <c r="G163" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="6">
-        <v>19995521215</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>427</v>
+        <v>783</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C165" s="2"/>
       <c r="D165" s="6">
-        <v>19974195470</v>
+        <v>19995521215</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>430</v>
+        <v>654</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G165" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G165" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="D166" s="6">
-        <v>19991752220</v>
+        <v>19974195470</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>772</v>
@@ -6186,19 +6189,17 @@
         <v>432</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>437</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C167" s="2"/>
       <c r="D167" s="6">
-        <v>19970891250</v>
+        <v>19991752220</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>772</v>
@@ -6206,44 +6207,44 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C168" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="D168" s="6">
-        <v>19987431126</v>
+        <v>19970891250</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G168" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>374</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C169" s="2"/>
       <c r="D169" s="6">
-        <v>1937273393</v>
+        <v>19987431126</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>770</v>
+        <v>137</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="11" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6251,16 +6252,22 @@
         <v>442</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="6"/>
+        <v>373</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" s="6">
+        <v>1937273393</v>
+      </c>
       <c r="E170" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="11" t="s">
-        <v>772</v>
+      <c r="F170" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6268,38 +6275,34 @@
         <v>442</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="6">
-        <v>19995881539</v>
-      </c>
+      <c r="D171" s="6"/>
       <c r="E171" s="2" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="F171" s="2"/>
-      <c r="G171" t="s">
+      <c r="G171" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="6">
-        <v>19983990026</v>
+        <v>19995881539</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G172" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6307,56 +6310,56 @@
       <c r="A173" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="C173" s="2"/>
       <c r="D173" s="6">
-        <v>19984497169</v>
+        <v>19983990026</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F173" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="G173" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>449</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="6">
-        <v>19993419181</v>
+        <v>19984497169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F174" s="2"/>
       <c r="G174" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="6">
-        <v>19987193408</v>
+        <v>19993419181</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>772</v>
@@ -6364,22 +6367,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C176" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D176" s="6">
-        <v>19993413737</v>
+        <v>19987193408</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G176" t="s">
+        <v>454</v>
+      </c>
+      <c r="G176" s="10" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6388,96 +6391,96 @@
         <v>455</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="6">
+        <v>19993413737</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G177" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="2" t="s">
+      <c r="C178" s="2"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F177" s="2"/>
-      <c r="G177" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="F178" s="2"/>
+      <c r="G178" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D179" s="6">
         <v>11996202178</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F178" s="2"/>
-      <c r="G178" s="10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="6">
-        <v>19991683732</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F179" s="2"/>
       <c r="G179" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>461</v>
+        <v>779</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>462</v>
+        <v>564</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="6">
-        <v>19953985696</v>
+        <v>19991683732</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F180" s="2"/>
-      <c r="G180" s="11" t="s">
-        <v>772</v>
+        <v>565</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="6">
-        <v>19992924435</v>
+        <v>19953985696</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F181" s="2"/>
       <c r="G181" s="11" t="s">
         <v>772</v>
       </c>
@@ -6487,52 +6490,54 @@
         <v>463</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="6">
-        <v>19997144717</v>
+        <v>19992924435</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F182" s="2"/>
-      <c r="G182" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>790</v>
+        <v>467</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="6">
-        <v>19974111755</v>
+        <v>19997144717</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="11" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="6">
-        <v>19982563026</v>
+        <v>19974111755</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="11" t="s">
@@ -6541,39 +6546,41 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>778</v>
+        <v>463</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="C185" s="2"/>
       <c r="D185" s="6">
-        <v>19991943844</v>
+        <v>19982563026</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="8" t="s">
+      <c r="G185" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>468</v>
+        <v>778</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="6"/>
+        <v>475</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D186" s="6">
+        <v>19991943844</v>
+      </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="11" t="s">
+      <c r="G186" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6582,19 +6589,15 @@
         <v>468</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D187" s="6">
-        <v>19974029553</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="2" t="s">
-        <v>471</v>
+        <v>145</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="8" t="s">
+      <c r="G187" s="11" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6603,16 +6606,16 @@
         <v>468</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="D188" s="6">
-        <v>19998383259</v>
+        <v>19974029553</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="8" t="s">
@@ -6621,20 +6624,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="D189" s="6">
-        <v>19981950110</v>
+        <v>19998383259</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>145</v>
+        <v>474</v>
       </c>
       <c r="F189" s="2"/>
-      <c r="G189" s="11" t="s">
+      <c r="G189" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6643,32 +6648,36 @@
         <v>477</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C190" s="2"/>
       <c r="D190" s="6">
-        <v>19997142750</v>
+        <v>19981950110</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="F190" s="2"/>
-      <c r="G190" s="8" t="s">
+      <c r="G190" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D191" s="6">
+        <v>19997142750</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F191" s="2"/>
       <c r="G191" s="8" t="s">
         <v>772</v>
@@ -6676,20 +6685,14 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D192" s="6">
-        <v>19999764748</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="8" t="s">
         <v>772</v>
@@ -6697,15 +6700,19 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="D193" s="6">
-        <v>19996623390</v>
+        <v>19999764748</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>488</v>
+        <v>332</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="8" t="s">
@@ -6717,14 +6724,12 @@
         <v>487</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="2" t="s">
-        <v>489</v>
-      </c>
+      <c r="C194" s="2"/>
       <c r="D194" s="6">
-        <v>19997684981</v>
+        <v>19996623390</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="8" t="s">
@@ -6735,15 +6740,15 @@
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>490</v>
-      </c>
+      <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D195" s="6"/>
+        <v>489</v>
+      </c>
+      <c r="D195" s="6">
+        <v>19997684981</v>
+      </c>
       <c r="E195" s="2" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="8" t="s">
@@ -6752,59 +6757,57 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D196" s="6">
-        <v>1938945766</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="D196" s="6"/>
       <c r="E196" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>495</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F196" s="2"/>
       <c r="G196" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="6"/>
+        <v>493</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D197" s="6">
+        <v>1938945766</v>
+      </c>
       <c r="E197" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F197" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="G197" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D198" s="6">
-        <v>19981950110</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="2" t="s">
-        <v>145</v>
+        <v>498</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="8" t="s">
@@ -6813,19 +6816,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D199" s="6">
-        <v>19999281714</v>
+        <v>19981950110</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>502</v>
+        <v>145</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="8" t="s">
@@ -6834,42 +6837,44 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D200" s="6">
-        <v>1933182928</v>
+        <v>19999281714</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>510</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="F200" s="2"/>
       <c r="G200" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C201" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D201" s="6">
-        <v>19994491033</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="F201" s="2"/>
+        <v>1933182928</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="G201" s="8" t="s">
         <v>772</v>
       </c>
@@ -6879,14 +6884,14 @@
         <v>511</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D202" s="6"/>
-      <c r="E202" s="2" t="s">
-        <v>71</v>
+        <v>512</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="6">
+        <v>19994491033</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="8" t="s">
@@ -6895,17 +6900,17 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="6">
-        <v>19981999121</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D203" s="6"/>
       <c r="E203" s="2" t="s">
-        <v>516</v>
+        <v>71</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="8" t="s">
@@ -6914,19 +6919,17 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>521</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C204" s="2"/>
       <c r="D204" s="6">
-        <v>1999143786</v>
+        <v>19981999121</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="8" t="s">
@@ -6935,19 +6938,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D205" s="6">
-        <v>19984040203</v>
+        <v>1999143786</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="8" t="s">
@@ -6956,17 +6959,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C206" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D206" s="6">
-        <v>19999108010</v>
+        <v>19984040203</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="8" t="s">
@@ -6975,41 +6980,39 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="6">
-        <v>1938343948</v>
+        <v>19999108010</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F207" s="2"/>
       <c r="G207" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="6">
-        <v>19996973088</v>
+        <v>1938343948</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>772</v>
@@ -7017,17 +7020,21 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C209" s="2"/>
-      <c r="D209" s="6"/>
+      <c r="D209" s="6">
+        <v>19996973088</v>
+      </c>
       <c r="E209" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F209" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G209" s="8" t="s">
         <v>772</v>
       </c>
@@ -7037,14 +7044,12 @@
         <v>533</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C210" s="2"/>
-      <c r="D210" s="6">
-        <v>1999723038</v>
-      </c>
+      <c r="D210" s="6"/>
       <c r="E210" s="2" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="8" t="s">
@@ -7053,43 +7058,39 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="6">
-        <v>19998881817</v>
+        <v>1999723038</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F211" s="2"/>
       <c r="G211" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>540</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" s="6">
-        <v>19996205599</v>
+        <v>19998881817</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>541</v>
+        <v>177</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>763</v>
+        <v>188</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>772</v>
@@ -7097,36 +7098,38 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="6"/>
+        <v>539</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D213" s="6">
+        <v>19996205599</v>
+      </c>
       <c r="E213" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F213" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="G213" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D214" s="6">
-        <v>19975413838</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="8" t="s">
@@ -7138,56 +7141,58 @@
         <v>544</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C215" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="D215" s="6">
-        <v>19999482072</v>
+        <v>19975413838</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>549</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F215" s="2"/>
       <c r="G215" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C216" s="2"/>
       <c r="D216" s="6">
-        <v>19991094585</v>
+        <v>19999482072</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F216" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="G216" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B217" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C217" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D217" s="6">
-        <v>1938752655</v>
+        <v>19991094585</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>555</v>
+        <v>310</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="10" t="s">
@@ -7198,17 +7203,15 @@
       <c r="A218" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D218" s="6">
-        <v>19997947989</v>
+        <v>1938752655</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>30</v>
+        <v>555</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="10" t="s">
@@ -7217,16 +7220,20 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D219" s="6"/>
-      <c r="E219" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="D219" s="6">
+        <v>19997947989</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F219" s="2"/>
       <c r="G219" s="8" t="s">
         <v>772</v>
@@ -7234,74 +7241,72 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="6">
-        <v>1933927524</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D220" s="6"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
       <c r="G220" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>787</v>
+        <v>561</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>786</v>
+        <v>562</v>
       </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="6"/>
+      <c r="D221" s="6">
+        <v>1933927524</v>
+      </c>
       <c r="E221" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="11" t="s">
-        <v>770</v>
+        <v>563</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>568</v>
+        <v>787</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>569</v>
+        <v>786</v>
       </c>
       <c r="C222" s="2"/>
-      <c r="D222" s="6">
-        <v>19978051812</v>
-      </c>
+      <c r="D222" s="6"/>
       <c r="E222" s="2" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>424</v>
+        <v>569</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="6">
-        <v>19993927869</v>
+        <v>19978051812</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="11" t="s">
@@ -7310,17 +7315,17 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>572</v>
+        <v>424</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="6">
-        <v>19971565019</v>
+        <v>19993927869</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="11" t="s">
@@ -7329,103 +7334,103 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="6">
-        <v>19998914675</v>
+        <v>19971565019</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="G225" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="6">
-        <v>19992366598</v>
+        <v>19998914675</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F226" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="G226" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="6">
-        <v>19994777732</v>
+        <v>19992366598</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="F227" s="2"/>
       <c r="G227" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>780</v>
+        <v>590</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C228" s="2"/>
       <c r="D228" s="6">
-        <v>19983397673</v>
+        <v>19994777732</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F228" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G228" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>593</v>
+        <v>780</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C229" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="D229" s="6">
-        <v>19983671900</v>
+        <v>19983397673</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>250</v>
+        <v>567</v>
       </c>
       <c r="F229" s="2"/>
-      <c r="G229" t="s">
-        <v>772</v>
+      <c r="G229" s="10" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7433,14 +7438,14 @@
         <v>593</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="6">
-        <v>19989361257</v>
+        <v>19983671900</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>488</v>
+        <v>250</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s">
@@ -7452,14 +7457,14 @@
         <v>593</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="6">
-        <v>19991056865</v>
+        <v>19989361257</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>137</v>
+        <v>488</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s">
@@ -7471,14 +7476,14 @@
         <v>593</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="6">
-        <v>19991086332</v>
+        <v>19991056865</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s">
@@ -7487,17 +7492,17 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="6">
-        <v>19998406883</v>
+        <v>19991086332</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s">
@@ -7506,17 +7511,17 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="6">
-        <v>19996918282</v>
+        <v>19998406883</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>602</v>
+        <v>137</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s">
@@ -7525,21 +7530,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="6">
-        <v>19989384836</v>
+        <v>19996918282</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>606</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="F235" s="2"/>
       <c r="G235" t="s">
         <v>772</v>
       </c>
@@ -7549,37 +7552,37 @@
         <v>603</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C236" s="2"/>
       <c r="D236" s="6">
-        <v>19983671900</v>
+        <v>19989384836</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F236" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="G236" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D237" s="6">
-        <v>19981766205</v>
+        <v>19983671900</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>612</v>
+        <v>9</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="11" t="s">
@@ -7588,17 +7591,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C238" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="D238" s="6">
-        <v>19997122002</v>
+        <v>19981766205</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="11" t="s">
@@ -7607,22 +7612,20 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>618</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C239" s="2"/>
       <c r="D239" s="6">
-        <v>9181623568</v>
+        <v>19997122002</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>112</v>
+        <v>615</v>
       </c>
       <c r="F239" s="2"/>
-      <c r="G239" s="8" t="s">
+      <c r="G239" s="11" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7631,16 +7634,16 @@
         <v>616</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D240" s="6">
-        <v>19996785936</v>
+        <v>9181623568</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="10" t="s">
@@ -7649,43 +7652,45 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D241" s="6">
-        <v>19971075809</v>
+        <v>19996785936</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F241" s="2"/>
       <c r="G241" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C242" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="D242" s="6">
-        <v>19989593632</v>
+        <v>19971075809</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F242" s="2"/>
-      <c r="G242" t="s">
+        <v>624</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G242" s="10" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7694,11 +7699,11 @@
         <v>625</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="6">
-        <v>19999958939</v>
+        <v>19989593632</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>137</v>
@@ -7713,11 +7718,11 @@
         <v>625</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="6">
-        <v>19991955454</v>
+        <v>19999958939</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>137</v>
@@ -7729,17 +7734,17 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="6">
-        <v>19991966446</v>
+        <v>19991955454</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s">
@@ -7751,14 +7756,14 @@
         <v>629</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="6">
-        <v>19999958939</v>
+        <v>19991966446</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s">
@@ -7770,12 +7775,14 @@
         <v>629</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C247" s="2"/>
-      <c r="D247" s="6"/>
+      <c r="D247" s="6">
+        <v>19999958939</v>
+      </c>
       <c r="E247" s="2" t="s">
-        <v>635</v>
+        <v>137</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" t="s">
@@ -7787,14 +7794,12 @@
         <v>629</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C248" s="2"/>
-      <c r="D248" s="6">
-        <v>19997467644</v>
-      </c>
+      <c r="D248" s="6"/>
       <c r="E248" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s">
@@ -7806,14 +7811,14 @@
         <v>629</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="6">
-        <v>19988219734</v>
+        <v>19997467644</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s">
@@ -7825,14 +7830,14 @@
         <v>629</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="6">
-        <v>19987628001</v>
+        <v>19988219734</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>135</v>
+        <v>639</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s">
@@ -7841,17 +7846,17 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="6">
-        <v>19991744783</v>
+        <v>19987628001</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>633</v>
+        <v>135</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s">
@@ -7863,12 +7868,14 @@
         <v>631</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C252" s="2"/>
-      <c r="D252" s="6"/>
+      <c r="D252" s="6">
+        <v>19991744783</v>
+      </c>
       <c r="E252" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s">
@@ -7877,17 +7884,15 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>647</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="C253" s="2"/>
       <c r="D253" s="6"/>
       <c r="E253" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" t="s">
@@ -7896,15 +7901,17 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C254" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="D254" s="6"/>
       <c r="E254" s="2" t="s">
-        <v>150</v>
+        <v>648</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s">
@@ -7913,17 +7920,15 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C255" s="2"/>
-      <c r="D255" s="6">
-        <v>19995384333</v>
-      </c>
+      <c r="D255" s="6"/>
       <c r="E255" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" t="s">
@@ -7932,20 +7937,20 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>781</v>
+        <v>649</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="6">
-        <v>19989963229</v>
+        <v>19995384333</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F256" s="2"/>
-      <c r="G256" s="8" t="s">
+      <c r="G256" s="11" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7954,14 +7959,14 @@
         <v>781</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="6">
-        <v>19981285216</v>
+        <v>19989963229</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>575</v>
+        <v>135</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="10" t="s">
@@ -7973,18 +7978,16 @@
         <v>781</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="6">
-        <v>19992691215</v>
+        <v>19981285216</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>577</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="F258" s="2"/>
       <c r="G258" s="8" t="s">
         <v>772</v>
       </c>
@@ -7994,18 +7997,18 @@
         <v>781</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C259" s="2"/>
       <c r="D259" s="6">
-        <v>19989436892</v>
+        <v>19992691215</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F259" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="G259" s="10" t="s">
         <v>772</v>
       </c>
@@ -8014,114 +8017,112 @@
       <c r="A260" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B260" s="2"/>
+      <c r="B260" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="C260" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D260" s="6">
-        <v>19997341650</v>
+        <v>19989436892</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>583</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F260" s="2"/>
       <c r="G260" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>655</v>
+        <v>781</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
-        <v>656</v>
+        <v>581</v>
       </c>
       <c r="D261" s="6">
-        <v>19983460215</v>
+        <v>19997341650</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D262" s="6">
+        <v>19983460215</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D262" s="6">
+      <c r="D263" s="6">
         <v>19991129199</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F262" s="2"/>
-      <c r="G262" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="39" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="11" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D264" s="6">
-        <v>19991558624</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>665</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E264" s="2"/>
       <c r="F264" s="2"/>
-      <c r="G264" s="8" t="s">
+      <c r="G264" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D265" s="6">
-        <v>19996132209</v>
+        <v>19991558624</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G265" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="F265" s="2"/>
+      <c r="G265" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -8130,35 +8131,39 @@
         <v>666</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D266" s="6">
-        <v>19988563936</v>
+        <v>19996132209</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F266" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G266" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C267" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="D267" s="6">
-        <v>19999839019</v>
+        <v>19988563936</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="11" t="s">
@@ -8169,97 +8174,97 @@
       <c r="A268" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="C268" s="2"/>
-      <c r="D268" s="6"/>
+      <c r="D268" s="6">
+        <v>19999839019</v>
+      </c>
       <c r="E268" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="F268" s="2"/>
       <c r="G268" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D269" s="6">
-        <v>11994721855</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="6"/>
       <c r="E269" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G269" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G269" s="11" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C270" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>679</v>
+      </c>
       <c r="D270" s="6">
-        <v>19993772262</v>
+        <v>11994721855</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F270" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="G270" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2" t="s">
-        <v>687</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C271" s="2"/>
       <c r="D271" s="6">
-        <v>19997570737</v>
+        <v>19993772262</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="F271" s="2"/>
       <c r="G271" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C272" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="D272" s="6">
-        <v>19989060201</v>
+        <v>19997570737</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F272" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G272" s="8" t="s">
         <v>772</v>
       </c>
@@ -8269,18 +8274,16 @@
         <v>684</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="6">
-        <v>19992879019</v>
+        <v>19989060201</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>689</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F273" s="2"/>
       <c r="G273" s="8" t="s">
         <v>772</v>
       </c>
@@ -8290,16 +8293,18 @@
         <v>684</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D274" s="6"/>
+        <v>688</v>
+      </c>
+      <c r="C274" s="2"/>
+      <c r="D274" s="6">
+        <v>19992879019</v>
+      </c>
       <c r="E274" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F274" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="G274" s="8" t="s">
         <v>772</v>
       </c>
@@ -8309,20 +8314,16 @@
         <v>684</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D275" s="6">
-        <v>19971000078</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D275" s="6"/>
       <c r="E275" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>695</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F275" s="2"/>
       <c r="G275" s="8" t="s">
         <v>772</v>
       </c>
@@ -8331,17 +8332,21 @@
       <c r="A276" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="C276" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D276" s="6">
-        <v>19996532656</v>
+        <v>19971000078</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F276" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>695</v>
+      </c>
       <c r="G276" s="8" t="s">
         <v>772</v>
       </c>
@@ -8350,15 +8355,15 @@
       <c r="A277" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2" t="s">
+        <v>696</v>
+      </c>
       <c r="D277" s="6">
-        <v>19970925870</v>
+        <v>19996532656</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="8" t="s">
@@ -8370,16 +8375,14 @@
         <v>684</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>699</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="C278" s="2"/>
       <c r="D278" s="6">
-        <v>19997203049</v>
+        <v>19970925870</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="8" t="s">
@@ -8388,44 +8391,44 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D279" s="6">
-        <v>19989560366</v>
+        <v>19997203049</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>703</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F279" s="2"/>
       <c r="G279" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D280" s="6">
-        <v>19997698086</v>
+        <v>19989560366</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F280" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="G280" s="8" t="s">
         <v>772</v>
       </c>
@@ -8435,20 +8438,18 @@
         <v>785</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D281" s="6">
-        <v>19997861827</v>
+        <v>19997698086</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>766</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="F281" s="2"/>
       <c r="G281" s="8" t="s">
         <v>772</v>
       </c>
@@ -8457,17 +8458,21 @@
       <c r="A282" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B282" s="2"/>
+      <c r="B282" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="C282" s="2" t="s">
-        <v>222</v>
+        <v>708</v>
       </c>
       <c r="D282" s="6">
-        <v>19974123102</v>
+        <v>19997861827</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F282" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="G282" s="8" t="s">
         <v>772</v>
       </c>
@@ -8476,70 +8481,68 @@
       <c r="A283" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="2"/>
+      <c r="C283" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D283" s="6">
+        <v>19974123102</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F283" s="2"/>
+      <c r="G283" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C284" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D283" s="6">
+      <c r="D284" s="6">
         <v>19982386822</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E284" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F283" s="2" t="s">
+      <c r="F284" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="G283" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
+      <c r="G284" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="6">
+      <c r="C285" s="2"/>
+      <c r="D285" s="6">
         <v>19999098550</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E285" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F284" s="2"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D285" s="6">
-        <v>19987814978</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G285" s="10" t="s">
-        <v>772</v>
-      </c>
+      <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="2"/>
+      <c r="C286" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C286" s="2"/>
       <c r="D286" s="6">
         <v>19987814978</v>
       </c>
@@ -8547,46 +8550,48 @@
         <v>137</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>715</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>793</v>
+        <v>716</v>
+      </c>
+      <c r="C287" s="2"/>
+      <c r="D287" s="6">
+        <v>19987814978</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F287" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G287" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>715</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="6">
-        <v>19994106988</v>
+        <v>284</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>793</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>796</v>
+        <v>7</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="10" t="s">
@@ -8598,11 +8603,11 @@
         <v>715</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="6">
-        <v>19989645385</v>
+        <v>19994106988</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>796</v>
@@ -8617,14 +8622,14 @@
         <v>715</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="6">
-        <v>1938850768</v>
+        <v>19989645385</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>397</v>
+        <v>796</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="10" t="s">
@@ -8633,19 +8638,17 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>720</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="C291" s="2"/>
       <c r="D291" s="6">
-        <v>1938348079</v>
+        <v>1938850768</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>187</v>
+        <v>397</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="10" t="s">
@@ -8654,19 +8657,19 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D292" s="6">
-        <v>19997630860</v>
+        <v>1938348079</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>724</v>
+        <v>187</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="10" t="s">
@@ -8678,52 +8681,54 @@
         <v>721</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="6"/>
+        <v>722</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D293" s="6">
+        <v>19997630860</v>
+      </c>
       <c r="E293" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="F293" s="2"/>
       <c r="G293" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C294" s="2"/>
-      <c r="D294" s="6">
-        <v>19997054080</v>
-      </c>
+      <c r="D294" s="6"/>
       <c r="E294" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F294" s="2"/>
-      <c r="G294" t="s">
+        <v>726</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G294" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="6">
-        <v>3592480284</v>
+        <v>19997054080</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s">
@@ -8735,14 +8740,14 @@
         <v>729</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="6">
-        <v>19974061580</v>
+        <v>3592480284</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="11" t="s">
@@ -8751,40 +8756,38 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="6">
-        <v>19997892388</v>
+        <v>19974061580</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="F297" s="2"/>
-      <c r="G297" t="s">
+      <c r="G297" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="6">
-        <v>19992144704</v>
+        <v>19997892388</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="F298" s="2"/>
       <c r="G298" t="s">
         <v>772</v>
       </c>
@@ -8794,75 +8797,77 @@
         <v>734</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="6">
-        <v>19992679775</v>
+        <v>19992144704</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F299" s="2"/>
-      <c r="G299" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G299" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="6">
-        <v>19975734486</v>
+        <v>19992679775</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="G300" t="s">
+        <v>741</v>
+      </c>
+      <c r="F300" s="2"/>
+      <c r="G300" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="C301" s="2"/>
       <c r="D301" s="6">
-        <v>19993480608</v>
+        <v>19975734486</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="F301" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="G301" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B302" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="C302" s="2" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="D302" s="6">
-        <v>19992837841</v>
+        <v>19993480608</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s">
@@ -8875,10 +8880,10 @@
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D303" s="6">
-        <v>19991857696</v>
+        <v>19992837841</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>745</v>
@@ -8890,17 +8895,17 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C304" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="D304" s="6">
-        <v>19991505521</v>
+        <v>19991857696</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>234</v>
+        <v>745</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s">
@@ -8909,50 +8914,70 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="6">
+        <v>19991505521</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F305" s="2"/>
+      <c r="G305" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C306" s="2"/>
+      <c r="D306" s="6">
         <v>19994915696</v>
       </c>
-      <c r="E305" s="2" t="s">
+      <c r="E306" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F306" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G305" s="10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
+      <c r="G306" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G306" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+  <autoFilter ref="A1:G307" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G306">
-      <sortCondition ref="A1:A306"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G307">
+      <sortCondition ref="A1:A307"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
+    <hyperlink ref="B152" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE73B0-C881-D042-A7F4-F044D2E56B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9D1CC-3AE9-0E4C-B46F-5F3041ED703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -2929,7 +2929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5826,22 +5826,20 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>775</v>
+        <v>352</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>775</v>
+        <v>352</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>19992397490</v>
+        <v>19983580744</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="7" t="s">
@@ -5850,22 +5848,22 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>775</v>
+        <v>352</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>775</v>
+        <v>352</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E129" s="5">
-        <v>19974188185</v>
+        <v>19954381919</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="7" t="s">
@@ -5874,20 +5872,22 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C130" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="D130" s="4" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="E130" s="5">
-        <v>19993365228</v>
+        <v>19996601477</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="7" t="s">
@@ -5896,20 +5896,22 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D131" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="E131" s="5">
-        <v>19982892852</v>
+        <v>19971501618</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="7" t="s">
@@ -5918,24 +5920,24 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="D132" s="4" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="E132" s="5">
-        <v>19997151464</v>
+        <v>19998370990</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G132" s="4"/>
       <c r="H132" s="7" t="s">
         <v>770</v>
       </c>
@@ -5948,14 +5950,16 @@
         <v>352</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D133" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="E133" s="5">
-        <v>19983580744</v>
+        <v>11933442554</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="7" t="s">
@@ -5964,46 +5968,48 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E134" s="5">
-        <v>19954381919</v>
+        <v>16997682703</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="H134" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="E135" s="5">
-        <v>19996601477</v>
+        <v>19991841308</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="7" t="s">
@@ -6012,22 +6018,22 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>352</v>
+        <v>801</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>337</v>
+        <v>176</v>
       </c>
       <c r="E136" s="5">
-        <v>19971501618</v>
+        <v>19981486077</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="7" t="s">
@@ -6036,184 +6042,178 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>362</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>19998370990</v>
+        <v>19974202908</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="H137" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>352</v>
+        <v>804</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E138" s="5">
-        <v>11933442554</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="4" t="s">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="6" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>348</v>
+        <v>804</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E139" s="5">
-        <v>16997682703</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H139" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="6" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>367</v>
+        <v>804</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>369</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>19991841308</v>
+        <v>1938353479</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="6" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>801</v>
+        <v>381</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="E141" s="5">
-        <v>19981486077</v>
+        <v>19991112126</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G141" s="4"/>
+        <v>383</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="H141" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D142" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E142" s="5">
-        <v>19974202908</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H142" s="7" t="s">
+        <v>19991615772</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>804</v>
+        <v>384</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="5"/>
+        <v>385</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E143" s="5">
+        <v>19974054256</v>
+      </c>
       <c r="F143" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H143" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>804</v>
+        <v>384</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5">
+        <v>19993876523</v>
+      </c>
       <c r="F144" s="4" t="s">
-        <v>30</v>
+        <v>392</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="6" t="s">
@@ -6222,20 +6222,18 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>804</v>
+        <v>393</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>757</v>
       </c>
       <c r="D145" s="4"/>
-      <c r="E145" s="5">
-        <v>1938353479</v>
-      </c>
+      <c r="E145" s="5"/>
       <c r="F145" s="4" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="6" t="s">
@@ -6244,115 +6242,117 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>381</v>
+        <v>805</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="4"/>
+        <v>775</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D146" s="4" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="E146" s="5">
-        <v>19991112126</v>
+        <v>19992397490</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>335</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G146" s="4"/>
       <c r="H146" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>381</v>
+        <v>805</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>381</v>
+        <v>775</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="E147" s="5">
-        <v>19991615772</v>
-      </c>
-      <c r="F147" s="4"/>
+        <v>19974188185</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="6" t="s">
+      <c r="H147" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>384</v>
+        <v>805</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>385</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="E148" s="5">
-        <v>19974054256</v>
+        <v>19993365228</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G148" s="4"/>
       <c r="H148" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>384</v>
+        <v>805</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>19993876523</v>
+        <v>19982892852</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>392</v>
+        <v>7</v>
       </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="6" t="s">
+      <c r="H149" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>393</v>
+        <v>805</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="5"/>
+        <v>338</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E150" s="5">
+        <v>19997151464</v>
+      </c>
       <c r="F150" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H150" s="7" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9923,9 +9923,13 @@
       <c r="G307" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H307" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
+  <autoFilter ref="A1:H307" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H307">
+      <sortCondition ref="A1:A307"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C150" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
+    <hyperlink ref="C145" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD220BDB-77CB-064D-BDF6-260A1EADA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA08366-BDE0-D64A-91C2-3F53CAA66C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -2914,8 +2914,8 @@
   <dimension ref="A1:H307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H308" sqref="H308"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2957,7 +2957,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>757</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>789</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>789</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>789</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>789</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>789</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>789</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>789</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>789</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>789</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>789</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>789</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>789</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>789</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>789</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>789</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>789</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>789</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>789</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>96</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>96</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>98</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>98</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>98</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>120</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>791</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>791</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>791</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>791</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>791</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>791</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>791</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>791</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>791</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>791</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>791</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>140</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>146</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>146</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>151</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>151</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>151</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>151</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>161</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>792</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>792</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>792</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>171</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>178</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>178</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>184</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>184</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>184</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>184</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>794</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>794</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>794</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>794</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>794</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>794</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>221</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>224</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>227</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>234</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>231</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>241</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>241</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>241</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>241</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>246</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>246</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>252</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>256</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>256</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>256</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>256</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>256</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>256</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>256</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>256</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>256</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>278</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>280</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>286</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>286</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>286</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>286</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>283</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>283</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>283</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>283</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>300</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>300</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>302</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>302</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>795</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>795</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>317</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>317</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>317</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>317</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>317</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>317</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>317</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>317</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>317</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>347</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>347</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>347</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>347</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>347</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>347</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>343</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>362</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>793</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>365</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>796</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>796</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>796</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>376</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>376</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>379</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>379</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>388</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>797</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>797</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>797</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>797</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>797</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>797</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>393</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>393</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>393</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>393</v>
       </c>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>406</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>406</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>406</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>406</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>406</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>798</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>798</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>798</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>798</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>798</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>798</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>437</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>437</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>437</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>799</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>440</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>440</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>800</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>450</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>450</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>450</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>450</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>456</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>458</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>458</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>458</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>458</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>768</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>463</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>463</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>463</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>472</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>472</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>801</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>801</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>801</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>801</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>801</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>801</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>801</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>801</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>801</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>801</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>801</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>801</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>801</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>801</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>801</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>801</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>801</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>801</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>801</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>801</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>801</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>801</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>801</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>801</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>801</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>801</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>801</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>801</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>801</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>801</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>776</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>562</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>564</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>564</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>802</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>802</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>802</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>803</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>586</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>586</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>586</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>586</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>591</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>591</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>591</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>591</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>591</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>591</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>609</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>609</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>614</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>804</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>804</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>804</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>804</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>804</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>804</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>804</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>804</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>804</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>804</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>804</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>804</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>804</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>642</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>770</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>770</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>770</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>770</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>770</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>650</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>652</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>656</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>656</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>663</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>663</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>676</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>676</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>676</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>674</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>674</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>674</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>674</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>674</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>674</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>674</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>674</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>774</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>774</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>774</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>774</v>
       </c>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>790</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>705</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>705</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>705</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>705</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>705</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>705</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>805</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>805</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>708</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>711</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>711</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>717</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>717</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>717</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>717</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>717</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>717</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>717</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>717</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>717</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>717</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>741</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>743</v>
       </c>
@@ -9910,14 +9910,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H307" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Yoga"/>
-      </filters>
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H307">
+      <sortCondition ref="A1:A307"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C144" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA08366-BDE0-D64A-91C2-3F53CAA66C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEF7CA-6CAA-4B44-9385-5F4C5671236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$309</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="819">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2474,6 +2474,31 @@
   </si>
   <si>
     <t>Buddha Spa</t>
+  </si>
+  <si>
+    <t>Esquadrias</t>
+  </si>
+  <si>
+    <t>GP Esquadrias</t>
+  </si>
+  <si>
+    <t>Genildo</t>
+  </si>
+  <si>
+    <t>(19) 3936-4445
+(19) 99269-1503</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Priscila Costa</t>
+  </si>
+  <si>
+    <t>Nok</t>
+  </si>
+  <si>
+    <t>NOk</t>
   </si>
 </sst>
 </file>
@@ -2911,11 +2936,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G307"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6031,41 +6056,49 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>372</v>
+        <v>811</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
+        <v>812</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="F137" s="4" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="6" t="s">
+      <c r="H137" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>372</v>
+        <v>811</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="5"/>
+        <v>815</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E138" s="5">
+        <v>19993251330</v>
+      </c>
       <c r="F138" s="4" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="6" t="s">
+      <c r="H138" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6077,14 +6110,12 @@
         <v>372</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D139" s="4"/>
-      <c r="E139" s="5">
-        <v>1938353479</v>
-      </c>
+      <c r="E139" s="5"/>
       <c r="F139" s="4" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="6" t="s">
@@ -6093,45 +6124,41 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>376</v>
+        <v>796</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E140" s="5">
-        <v>19991112126</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H140" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>376</v>
+        <v>796</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>384</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>19991615772</v>
-      </c>
-      <c r="F141" s="4"/>
+        <v>1938353479</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="G141" s="4"/>
       <c r="H141" s="6" t="s">
         <v>762</v>
@@ -6139,25 +6166,23 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>380</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E142" s="5">
-        <v>19974054256</v>
+        <v>19991112126</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>762</v>
@@ -6165,21 +6190,21 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D143" s="4"/>
+        <v>383</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="E143" s="5">
-        <v>19993876523</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>19991615772</v>
+      </c>
+      <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="6" t="s">
         <v>762</v>
@@ -6187,69 +6212,69 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
+        <v>379</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144" s="5">
+        <v>19974054256</v>
+      </c>
       <c r="F144" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>797</v>
+        <v>379</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>767</v>
+        <v>385</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>19992397490</v>
+        <v>19993876523</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="7" t="s">
+      <c r="H145" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>797</v>
+        <v>388</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E146" s="5">
-        <v>19974188185</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
       <c r="F146" s="4" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6258,17 +6283,19 @@
         <v>797</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C147" s="4"/>
+        <v>767</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D147" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E147" s="5">
-        <v>19993365228</v>
+        <v>19992397490</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="7" t="s">
@@ -6280,17 +6307,19 @@
         <v>797</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>333</v>
+        <v>767</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D148" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="E148" s="5">
-        <v>19982892852</v>
+        <v>19974188185</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="7" t="s">
@@ -6306,17 +6335,15 @@
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E149" s="5">
-        <v>19997151464</v>
+        <v>19993365228</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G149" s="4"/>
       <c r="H149" s="7" t="s">
         <v>762</v>
       </c>
@@ -6326,19 +6353,17 @@
         <v>797</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>391</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>199741500019</v>
+        <v>19982892852</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>392</v>
+        <v>7</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="7" t="s">
@@ -6347,47 +6372,49 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>393</v>
+        <v>797</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D151" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="E151" s="5">
-        <v>19999020595</v>
+        <v>19997151464</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H151" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>393</v>
+        <v>797</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E152" s="5">
-        <v>19991164395</v>
+        <v>199741500019</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G152" s="4"/>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6399,19 +6426,17 @@
         <v>393</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>400</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>19999317334</v>
+        <v>19999020595</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6422,15 +6447,17 @@
       <c r="B154" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="D154" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E154" s="5">
-        <v>19992499594</v>
+        <v>19991164395</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="9" t="s">
@@ -6457,50 +6484,53 @@
         <v>405</v>
       </c>
       <c r="G155" s="4"/>
+      <c r="H155" s="6" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E156" s="5">
-        <v>19996603159</v>
+        <v>19999317334</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>395</v>
+        <v>69</v>
       </c>
       <c r="G156" s="4"/>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="9" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D157" s="4"/>
+        <v>393</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="E157" s="5">
-        <v>19983069292</v>
+        <v>19992499594</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>758</v>
+        <v>402</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="9" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6509,17 +6539,19 @@
         <v>406</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D158" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="E158" s="5">
-        <v>1936561736</v>
+        <v>19996603159</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="7" t="s">
@@ -6531,19 +6563,17 @@
         <v>406</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>416</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>19997103010</v>
+        <v>19983069292</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>417</v>
+        <v>758</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="7" t="s">
@@ -6555,19 +6585,17 @@
         <v>406</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>420</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>19974233582</v>
+        <v>1936561736</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="7" t="s">
@@ -6576,45 +6604,49 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>798</v>
+        <v>406</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>771</v>
+        <v>414</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>644</v>
+        <v>415</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="E161" s="5">
+        <v>19997103010</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="G161" s="4"/>
-      <c r="H161" s="6" t="s">
+      <c r="H161" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>798</v>
+        <v>406</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>772</v>
+        <v>418</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D162" s="4"/>
+        <v>419</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="E162" s="5">
-        <v>19995521215</v>
+        <v>19974233582</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H162" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G162" s="4"/>
+      <c r="H162" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6623,24 +6655,18 @@
         <v>798</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>422</v>
+        <v>771</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>423</v>
+        <v>644</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E163" s="5">
-        <v>19974195470</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H163" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6649,22 +6675,22 @@
         <v>798</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>428</v>
+        <v>646</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>19991752220</v>
+        <v>19995521215</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>429</v>
+        <v>647</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H164" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H164" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6673,22 +6699,22 @@
         <v>798</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E165" s="5">
-        <v>19970891250</v>
+        <v>19974195470</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>762</v>
@@ -6699,63 +6725,67 @@
         <v>798</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>19987431126</v>
+        <v>19991752220</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G166" s="4"/>
-      <c r="H166" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H166" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>437</v>
+        <v>798</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="E167" s="5">
-        <v>1937273393</v>
+        <v>19970891250</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>437</v>
+        <v>798</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="D168" s="4"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5">
+        <v>19987431126</v>
+      </c>
       <c r="F168" s="4" t="s">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="6" t="s">
@@ -6770,107 +6800,109 @@
         <v>437</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D169" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="E169" s="5">
-        <v>19995881539</v>
+        <v>1937273393</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="6" t="s">
-        <v>762</v>
+        <v>340</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>799</v>
+        <v>437</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="D170" s="4"/>
-      <c r="E170" s="5">
-        <v>19993419181</v>
-      </c>
+      <c r="E170" s="5"/>
       <c r="F170" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H170" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G170" s="4"/>
+      <c r="H170" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>19983990026</v>
+        <v>19995881539</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H171" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C172" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>19984497169</v>
+        <v>19993419181</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G172" s="4"/>
+        <v>445</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="H172" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>19987193408</v>
+        <v>19983990026</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>762</v>
@@ -6878,45 +6910,45 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>451</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>19993413737</v>
+        <v>19984497169</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H174" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D175" s="4"/>
-      <c r="E175" s="5"/>
+        <v>447</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="5">
+        <v>19987193408</v>
+      </c>
       <c r="F175" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G175" s="4"/>
-      <c r="H175" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H175" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6925,22 +6957,22 @@
         <v>450</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>773</v>
+        <v>450</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>649</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>11996202178</v>
+        <v>19993413737</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G176" s="4"/>
-      <c r="H176" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H176" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6949,87 +6981,85 @@
         <v>450</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>769</v>
+        <v>450</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>558</v>
+        <v>454</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="5">
-        <v>19991683732</v>
-      </c>
+      <c r="E177" s="5"/>
       <c r="F177" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>760</v>
+        <v>455</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="6" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>456</v>
+        <v>773</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D178" s="4"/>
+        <v>648</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="E178" s="5">
-        <v>19953985696</v>
+        <v>11996202178</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="6" t="s">
+      <c r="H178" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>458</v>
+        <v>769</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>19992924435</v>
+        <v>19991683732</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>460</v>
+        <v>559</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>762</v>
+        <v>449</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>19997144717</v>
+        <v>19953985696</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="6" t="s">
@@ -7044,16 +7074,18 @@
         <v>458</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>779</v>
+        <v>459</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>19974111755</v>
+        <v>19992924435</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G181" s="4"/>
+        <v>460</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="H181" s="6" t="s">
         <v>762</v>
       </c>
@@ -7066,14 +7098,14 @@
         <v>458</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>780</v>
+        <v>462</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>19982563026</v>
+        <v>19997144717</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="6" t="s">
@@ -7082,42 +7114,42 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>471</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>19991943844</v>
+        <v>19974111755</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>464</v>
+        <v>780</v>
       </c>
       <c r="D184" s="4"/>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5">
+        <v>19982563026</v>
+      </c>
       <c r="F184" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="6" t="s">
@@ -7126,22 +7158,22 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>463</v>
+        <v>768</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>463</v>
+        <v>768</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="E185" s="5">
-        <v>19974029553</v>
+        <v>19991943844</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="7" t="s">
@@ -7156,62 +7188,60 @@
         <v>463</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E186" s="5">
-        <v>19998383259</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="5"/>
       <c r="F186" s="4" t="s">
-        <v>469</v>
+        <v>145</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D187" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="E187" s="5">
-        <v>19981950110</v>
+        <v>19974029553</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="6" t="s">
+      <c r="H187" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E188" s="5">
-        <v>19997142750</v>
+        <v>19998383259</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="7" t="s">
@@ -7220,40 +7250,44 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>801</v>
+        <v>472</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D189" s="4"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="4"/>
+      <c r="E189" s="5">
+        <v>19981950110</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="7" t="s">
+      <c r="H189" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>801</v>
+        <v>472</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E190" s="5">
-        <v>19999764748</v>
+        <v>19997142750</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>327</v>
+        <v>476</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="7" t="s">
@@ -7265,16 +7299,14 @@
         <v>801</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C191" s="4"/>
+        <v>477</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D191" s="4"/>
-      <c r="E191" s="5">
-        <v>19996623390</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>483</v>
-      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="7" t="s">
         <v>762</v>
@@ -7285,17 +7317,19 @@
         <v>801</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C192" s="4"/>
+        <v>479</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="D192" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E192" s="5">
-        <v>19997684981</v>
+        <v>19999764748</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="7" t="s">
@@ -7309,15 +7343,13 @@
       <c r="B193" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E193" s="5"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="5">
+        <v>19996623390</v>
+      </c>
       <c r="F193" s="4" t="s">
-        <v>255</v>
+        <v>483</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="7" t="s">
@@ -7329,23 +7361,19 @@
         <v>801</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>488</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E194" s="5">
-        <v>1938945766</v>
+        <v>19997684981</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>490</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G194" s="4"/>
       <c r="H194" s="7" t="s">
         <v>762</v>
       </c>
@@ -7355,15 +7383,17 @@
         <v>801</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D195" s="4"/>
+        <v>485</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="E195" s="5"/>
       <c r="F195" s="4" t="s">
-        <v>493</v>
+        <v>255</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="7" t="s">
@@ -7375,21 +7405,23 @@
         <v>801</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="E196" s="5">
-        <v>19981950110</v>
+        <v>1938945766</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G196" s="4"/>
+        <v>294</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="H196" s="7" t="s">
         <v>762</v>
       </c>
@@ -7399,19 +7431,15 @@
         <v>801</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E197" s="5">
-        <v>19999281714</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="5"/>
       <c r="F197" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="7" t="s">
@@ -7423,23 +7451,21 @@
         <v>801</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E198" s="5">
-        <v>1933182928</v>
+        <v>19981950110</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="7" t="s">
         <v>762</v>
       </c>
@@ -7449,17 +7475,19 @@
         <v>801</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D199" s="4"/>
+        <v>495</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="E199" s="5">
-        <v>19994491033</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>508</v>
+        <v>19999281714</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="7" t="s">
@@ -7471,19 +7499,23 @@
         <v>801</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E200" s="5"/>
+        <v>503</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1933182928</v>
+      </c>
       <c r="F200" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G200" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="H200" s="7" t="s">
         <v>762</v>
       </c>
@@ -7493,17 +7525,17 @@
         <v>801</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>19981999121</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>511</v>
+        <v>19994491033</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="7" t="s">
@@ -7515,19 +7547,17 @@
         <v>801</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E202" s="5">
-        <v>1999143786</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="4" t="s">
-        <v>517</v>
+        <v>71</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="7" t="s">
@@ -7539,19 +7569,17 @@
         <v>801</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>520</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>19984040203</v>
+        <v>19981999121</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="7" t="s">
@@ -7563,17 +7591,19 @@
         <v>801</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D204" s="4"/>
+        <v>515</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>516</v>
+      </c>
       <c r="E204" s="5">
-        <v>19999108010</v>
+        <v>1999143786</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>57</v>
+        <v>517</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="7" t="s">
@@ -7585,21 +7615,21 @@
         <v>801</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D205" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="E205" s="5">
-        <v>1938343948</v>
+        <v>19984040203</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="G205" s="4"/>
       <c r="H205" s="7" t="s">
         <v>762</v>
       </c>
@@ -7609,21 +7639,19 @@
         <v>801</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>19996973088</v>
+        <v>19999108010</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>251</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G206" s="4"/>
       <c r="H206" s="7" t="s">
         <v>762</v>
       </c>
@@ -7633,17 +7661,21 @@
         <v>801</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D207" s="4"/>
-      <c r="E207" s="5"/>
+      <c r="E207" s="5">
+        <v>1938343948</v>
+      </c>
       <c r="F207" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G207" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H207" s="7" t="s">
         <v>762</v>
       </c>
@@ -7653,19 +7685,21 @@
         <v>801</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>1999723038</v>
+        <v>19996973088</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G208" s="4"/>
+      <c r="G208" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H208" s="7" t="s">
         <v>762</v>
       </c>
@@ -7675,21 +7709,17 @@
         <v>801</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D209" s="4"/>
-      <c r="E209" s="5">
-        <v>19998881817</v>
-      </c>
+      <c r="E209" s="5"/>
       <c r="F209" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G209" s="4"/>
       <c r="H209" s="7" t="s">
         <v>762</v>
       </c>
@@ -7699,23 +7729,19 @@
         <v>801</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>535</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>19996205599</v>
+        <v>1999723038</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>753</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G210" s="4"/>
       <c r="H210" s="7" t="s">
         <v>762</v>
       </c>
@@ -7725,17 +7751,21 @@
         <v>801</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D211" s="4"/>
-      <c r="E211" s="5"/>
+      <c r="E211" s="5">
+        <v>19998881817</v>
+      </c>
       <c r="F211" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G211" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H211" s="7" t="s">
         <v>762</v>
       </c>
@@ -7745,21 +7775,23 @@
         <v>801</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E212" s="5">
-        <v>19975413838</v>
+        <v>19996205599</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G212" s="4"/>
+        <v>536</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="H212" s="7" t="s">
         <v>762</v>
       </c>
@@ -7769,21 +7801,17 @@
         <v>801</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D213" s="4"/>
-      <c r="E213" s="5">
-        <v>19999482072</v>
-      </c>
+      <c r="E213" s="5"/>
       <c r="F213" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>544</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G213" s="4"/>
       <c r="H213" s="7" t="s">
         <v>762</v>
       </c>
@@ -7793,19 +7821,19 @@
         <v>801</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E214" s="5">
-        <v>19991094585</v>
+        <v>19975413838</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="7" t="s">
@@ -7817,19 +7845,21 @@
         <v>801</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4" t="s">
-        <v>549</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>1938752655</v>
+        <v>19999482072</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G215" s="4"/>
+        <v>543</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="H215" s="7" t="s">
         <v>762</v>
       </c>
@@ -7839,19 +7869,19 @@
         <v>801</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E216" s="5">
-        <v>19997947989</v>
+        <v>19991094585</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="7" t="s">
@@ -7863,16 +7893,18 @@
         <v>801</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>554</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="C217" s="4"/>
       <c r="D217" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E217" s="5"/>
-      <c r="F217" s="4"/>
+        <v>549</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1938752655</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="G217" s="4"/>
       <c r="H217" s="7" t="s">
         <v>762</v>
@@ -7883,105 +7915,105 @@
         <v>801</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>806</v>
+        <v>548</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D218" s="4"/>
+        <v>551</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="E218" s="5">
-        <v>1933927524</v>
+        <v>19997947989</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G218" s="4"/>
       <c r="H218" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>776</v>
+        <v>553</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D219" s="4"/>
+        <v>554</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="E219" s="5"/>
-      <c r="F219" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="F219" s="4"/>
       <c r="G219" s="4"/>
-      <c r="H219" s="6" t="s">
-        <v>760</v>
+      <c r="H219" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>562</v>
+        <v>801</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>562</v>
+        <v>806</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>19978051812</v>
+        <v>1933927524</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G220" s="4"/>
-      <c r="H220" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H220" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>564</v>
+        <v>776</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>564</v>
+        <v>776</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>419</v>
+        <v>775</v>
       </c>
       <c r="D221" s="4"/>
-      <c r="E221" s="5">
-        <v>19993927869</v>
-      </c>
+      <c r="E221" s="5"/>
       <c r="F221" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>19971565019</v>
+        <v>19978051812</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6" t="s">
@@ -7990,47 +8022,45 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>802</v>
+        <v>564</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>582</v>
+        <v>419</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>19998914675</v>
+        <v>19993927869</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="H223" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="4"/>
+      <c r="H223" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>802</v>
+        <v>564</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>19992366598</v>
+        <v>19971565019</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>580</v>
+        <v>305</v>
       </c>
       <c r="G224" s="4"/>
-      <c r="H224" s="7" t="s">
+      <c r="H224" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8039,20 +8069,20 @@
         <v>802</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>807</v>
+        <v>581</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>19994777732</v>
+        <v>19998914675</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>219</v>
+        <v>754</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>762</v>
@@ -8060,70 +8090,72 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>803</v>
+        <v>578</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>560</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>19983397673</v>
+        <v>19992366598</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>586</v>
+        <v>802</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>586</v>
+        <v>807</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>19983671900</v>
+        <v>19994777732</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G227" s="4"/>
-      <c r="H227" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H227" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D228" s="4"/>
+        <v>759</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="E228" s="5">
-        <v>19989361257</v>
+        <v>19983397673</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="G228" s="4"/>
-      <c r="H228" s="6" t="s">
-        <v>762</v>
+      <c r="H228" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -8134,14 +8166,14 @@
         <v>586</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>19991056865</v>
+        <v>19983671900</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="6" t="s">
@@ -8156,14 +8188,14 @@
         <v>586</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>19991086332</v>
+        <v>19989361257</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>59</v>
+        <v>483</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="6" t="s">
@@ -8172,17 +8204,17 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>19998406883</v>
+        <v>19991056865</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>137</v>
@@ -8194,20 +8226,20 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>19996918282</v>
+        <v>19991086332</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>595</v>
+        <v>59</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="6" t="s">
@@ -8219,21 +8251,19 @@
         <v>591</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>19989384836</v>
+        <v>19998406883</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>599</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G233" s="4"/>
       <c r="H233" s="6" t="s">
         <v>762</v>
       </c>
@@ -8243,19 +8273,17 @@
         <v>591</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>601</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>19983671900</v>
+        <v>19996918282</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>9</v>
+        <v>595</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="6" t="s">
@@ -8267,21 +8295,21 @@
         <v>591</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>604</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>19981766205</v>
+        <v>19989384836</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G235" s="4"/>
+        <v>598</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="H235" s="6" t="s">
         <v>762</v>
       </c>
@@ -8291,17 +8319,19 @@
         <v>591</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D236" s="4"/>
+        <v>600</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>601</v>
+      </c>
       <c r="E236" s="5">
-        <v>19997122002</v>
+        <v>19983671900</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>608</v>
+        <v>9</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="6" t="s">
@@ -8310,119 +8340,121 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E237" s="5">
-        <v>9181623568</v>
+        <v>19981766205</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>112</v>
+        <v>605</v>
       </c>
       <c r="G237" s="4"/>
-      <c r="H237" s="7" t="s">
+      <c r="H237" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>613</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>19996785936</v>
+        <v>19997122002</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>260</v>
+        <v>608</v>
       </c>
       <c r="G238" s="4"/>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E239" s="5">
-        <v>19971075809</v>
+        <v>9181623568</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G239" s="4"/>
       <c r="H239" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>804</v>
+        <v>609</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D240" s="4"/>
+        <v>612</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="E240" s="5">
-        <v>19989593632</v>
+        <v>19996785936</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="G240" s="4"/>
-      <c r="H240" s="6" t="s">
+      <c r="H240" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>804</v>
+        <v>614</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D241" s="4"/>
+        <v>615</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="E241" s="5">
-        <v>19999958939</v>
+        <v>19971075809</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G241" s="4"/>
-      <c r="H241" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H241" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8434,11 +8466,11 @@
         <v>618</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>19991955454</v>
+        <v>19989593632</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>137</v>
@@ -8453,17 +8485,17 @@
         <v>804</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>19991966446</v>
+        <v>19999958939</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="6" t="s">
@@ -8475,14 +8507,14 @@
         <v>804</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>19999958939</v>
+        <v>19991955454</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>137</v>
@@ -8500,12 +8532,14 @@
         <v>622</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D245" s="4"/>
-      <c r="E245" s="5"/>
+      <c r="E245" s="5">
+        <v>19991966446</v>
+      </c>
       <c r="F245" s="4" t="s">
-        <v>628</v>
+        <v>255</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="6" t="s">
@@ -8520,14 +8554,14 @@
         <v>622</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>19997467644</v>
+        <v>19999958939</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>630</v>
+        <v>137</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="6" t="s">
@@ -8542,14 +8576,12 @@
         <v>622</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D247" s="4"/>
-      <c r="E247" s="5">
-        <v>19988219734</v>
-      </c>
+      <c r="E247" s="5"/>
       <c r="F247" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="6" t="s">
@@ -8564,14 +8596,14 @@
         <v>622</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>19987628001</v>
+        <v>19997467644</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>135</v>
+        <v>630</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="6" t="s">
@@ -8583,17 +8615,17 @@
         <v>804</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>19991744783</v>
+        <v>19988219734</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="6" t="s">
@@ -8605,15 +8637,17 @@
         <v>804</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D250" s="4"/>
-      <c r="E250" s="5"/>
+      <c r="E250" s="5">
+        <v>19987628001</v>
+      </c>
       <c r="F250" s="4" t="s">
-        <v>635</v>
+        <v>135</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="6" t="s">
@@ -8625,17 +8659,17 @@
         <v>804</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="E251" s="5"/>
+        <v>625</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="5">
+        <v>19991744783</v>
+      </c>
       <c r="F251" s="4" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="6" t="s">
@@ -8647,15 +8681,15 @@
         <v>804</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="5"/>
       <c r="F252" s="4" t="s">
-        <v>150</v>
+        <v>635</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="6" t="s">
@@ -8664,20 +8698,20 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>642</v>
+        <v>804</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D253" s="4"/>
-      <c r="E253" s="5">
-        <v>19995384333</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E253" s="5"/>
       <c r="F253" s="4" t="s">
-        <v>15</v>
+        <v>641</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="6" t="s">
@@ -8686,45 +8720,43 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>770</v>
+        <v>636</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="D254" s="4"/>
-      <c r="E254" s="5">
-        <v>19989963229</v>
-      </c>
+      <c r="E254" s="5"/>
       <c r="F254" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G254" s="4"/>
-      <c r="H254" s="7" t="s">
+      <c r="H254" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>19981285216</v>
+        <v>19995384333</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>569</v>
+        <v>15</v>
       </c>
       <c r="G255" s="4"/>
-      <c r="H255" s="7" t="s">
+      <c r="H255" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8736,18 +8768,16 @@
         <v>770</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>19992691215</v>
+        <v>19989963229</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>571</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G256" s="4"/>
       <c r="H256" s="7" t="s">
         <v>762</v>
       </c>
@@ -8760,16 +8790,14 @@
         <v>770</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>573</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>19989436892</v>
+        <v>19981285216</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="7" t="s">
@@ -8783,18 +8811,18 @@
       <c r="B258" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4" t="s">
-        <v>575</v>
-      </c>
+      <c r="C258" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>19997341650</v>
+        <v>19992691215</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>576</v>
+        <v>206</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H258" s="7" t="s">
         <v>762</v>
@@ -8802,187 +8830,187 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>650</v>
+        <v>770</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C259" s="4"/>
+        <v>770</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="D259" s="4" t="s">
-        <v>651</v>
+        <v>573</v>
       </c>
       <c r="E259" s="5">
-        <v>19991129199</v>
+        <v>19989436892</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>11</v>
+        <v>574</v>
       </c>
       <c r="G259" s="4"/>
-      <c r="H259" s="6" t="s">
+      <c r="H259" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>652</v>
+        <v>770</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>653</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C260" s="4"/>
       <c r="D260" s="4" t="s">
-        <v>654</v>
+        <v>575</v>
       </c>
       <c r="E260" s="5">
-        <v>19991558624</v>
+        <v>19997341650</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G260" s="4"/>
+        <v>576</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="H260" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>657</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E261" s="5">
-        <v>19996132209</v>
+        <v>19991129199</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="G261" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G261" s="4"/>
       <c r="H261" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E262" s="5">
-        <v>19988563936</v>
+        <v>19991558624</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G262" s="4"/>
-      <c r="H262" s="6" t="s">
+      <c r="H262" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D263" s="4"/>
+        <v>657</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="E263" s="5">
-        <v>19999839019</v>
+        <v>19996132209</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G263" s="4"/>
+        <v>659</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="H263" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E264" s="5">
+        <v>19988563936</v>
+      </c>
       <c r="F264" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="G264" s="4"/>
       <c r="H264" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>669</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="D265" s="4"/>
       <c r="E265" s="5">
-        <v>11994721855</v>
+        <v>19999839019</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H265" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G265" s="4"/>
+      <c r="H265" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>672</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="5">
-        <v>19993772262</v>
-      </c>
+      <c r="E266" s="5"/>
       <c r="F266" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G266" s="4"/>
-      <c r="H266" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H266" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8991,20 +9019,22 @@
         <v>676</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>667</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>668</v>
+      </c>
       <c r="D267" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E267" s="5">
-        <v>19997570737</v>
+        <v>11994721855</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>108</v>
+        <v>430</v>
       </c>
       <c r="H267" s="7" t="s">
         <v>762</v>
@@ -9012,20 +9042,20 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="5">
-        <v>19989060201</v>
+        <v>19993772262</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>145</v>
+        <v>673</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="7" t="s">
@@ -9034,23 +9064,23 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D269" s="4"/>
+        <v>676</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="E269" s="5">
-        <v>19992879019</v>
+        <v>19997570737</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>679</v>
+        <v>108</v>
       </c>
       <c r="H269" s="7" t="s">
         <v>762</v>
@@ -9064,14 +9094,14 @@
         <v>674</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E270" s="5"/>
+        <v>675</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="5">
+        <v>19989060201</v>
+      </c>
       <c r="F270" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="7" t="s">
@@ -9086,19 +9116,17 @@
         <v>674</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>683</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="D271" s="4"/>
       <c r="E271" s="5">
-        <v>19971000078</v>
+        <v>19992879019</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>684</v>
+        <v>229</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H271" s="7" t="s">
         <v>762</v>
@@ -9111,15 +9139,15 @@
       <c r="B272" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C272" s="4"/>
+      <c r="C272" s="4" t="s">
+        <v>680</v>
+      </c>
       <c r="D272" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="E272" s="5">
-        <v>19996532656</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="E272" s="5"/>
       <c r="F272" s="4" t="s">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="7" t="s">
@@ -9134,16 +9162,20 @@
         <v>674</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D273" s="4"/>
+        <v>682</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>683</v>
+      </c>
       <c r="E273" s="5">
-        <v>19970925870</v>
+        <v>19971000078</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G273" s="4"/>
+        <v>684</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="H273" s="7" t="s">
         <v>762</v>
       </c>
@@ -9155,17 +9187,15 @@
       <c r="B274" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>688</v>
-      </c>
+      <c r="C274" s="4"/>
       <c r="D274" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E274" s="5">
-        <v>19997203049</v>
+        <v>19996532656</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="7" t="s">
@@ -9177,45 +9207,41 @@
         <v>674</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>692</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="D275" s="4"/>
       <c r="E275" s="5">
-        <v>19989560366</v>
+        <v>19970925870</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>693</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G275" s="4"/>
       <c r="H275" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E276" s="5">
-        <v>19997698086</v>
+        <v>19997203049</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>696</v>
+        <v>95</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="7" t="s">
@@ -9224,25 +9250,25 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>774</v>
+        <v>690</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E277" s="5">
-        <v>19997861827</v>
+        <v>19989560366</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>699</v>
+        <v>100</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>756</v>
+        <v>693</v>
       </c>
       <c r="H277" s="7" t="s">
         <v>762</v>
@@ -9255,15 +9281,17 @@
       <c r="B278" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C278" s="4"/>
+      <c r="C278" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="D278" s="4" t="s">
-        <v>217</v>
+        <v>695</v>
       </c>
       <c r="E278" s="5">
-        <v>19974123102</v>
+        <v>19997698086</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>95</v>
+        <v>696</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="7" t="s">
@@ -9278,19 +9306,19 @@
         <v>774</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E279" s="5">
-        <v>19982386822</v>
+        <v>19997861827</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>43</v>
+        <v>699</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>702</v>
+        <v>756</v>
       </c>
       <c r="H279" s="7" t="s">
         <v>762</v>
@@ -9314,46 +9342,53 @@
         <v>30</v>
       </c>
       <c r="G280" s="4"/>
+      <c r="H280" s="6" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D281" s="4"/>
-      <c r="E281" s="5"/>
+        <v>774</v>
+      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E281" s="5">
+        <v>19974123102</v>
+      </c>
       <c r="F281" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G281" s="4"/>
-      <c r="H281" s="6" t="s">
-        <v>760</v>
+      <c r="H281" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>705</v>
+        <v>774</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="C282" s="4"/>
+        <v>774</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="D282" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E282" s="5">
-        <v>19987814978</v>
+        <v>19982386822</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>461</v>
+        <v>702</v>
       </c>
       <c r="H282" s="7" t="s">
         <v>762</v>
@@ -9361,26 +9396,22 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>705</v>
+        <v>117</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>706</v>
+        <v>118</v>
       </c>
       <c r="D283" s="4"/>
-      <c r="E283" s="5">
-        <v>19987814978</v>
-      </c>
+      <c r="E283" s="5"/>
       <c r="F283" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H283" s="7" t="s">
-        <v>762</v>
+        <v>119</v>
+      </c>
+      <c r="G283" s="4"/>
+      <c r="H283" s="6" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -9390,19 +9421,19 @@
       <c r="B284" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="C284" s="4"/>
       <c r="D284" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>782</v>
+        <v>706</v>
+      </c>
+      <c r="E284" s="5">
+        <v>19987814978</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G284" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="H284" s="7" t="s">
         <v>762</v>
       </c>
@@ -9415,16 +9446,18 @@
         <v>705</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>781</v>
+        <v>706</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="5">
-        <v>19994106988</v>
+        <v>19987814978</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="G285" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="H285" s="7" t="s">
         <v>762</v>
       </c>
@@ -9437,14 +9470,16 @@
         <v>705</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="D286" s="4"/>
-      <c r="E286" s="5">
-        <v>19989645385</v>
+        <v>279</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>785</v>
+        <v>7</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="7" t="s">
@@ -9459,14 +9494,14 @@
         <v>705</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="5">
-        <v>1938850768</v>
+        <v>19994106988</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>392</v>
+        <v>785</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="7" t="s">
@@ -9475,153 +9510,153 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>805</v>
+        <v>705</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C288" s="4"/>
+        <v>705</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>783</v>
+      </c>
       <c r="D288" s="4"/>
-      <c r="E288" s="5" t="s">
-        <v>766</v>
+      <c r="E288" s="5">
+        <v>19989645385</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>237</v>
+        <v>785</v>
       </c>
       <c r="G288" s="4"/>
-      <c r="H288" s="6" t="s">
+      <c r="H288" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>805</v>
+        <v>705</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="C289" s="4"/>
+        <v>705</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>784</v>
+      </c>
       <c r="D289" s="4"/>
-      <c r="E289" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="F289" s="4"/>
+      <c r="E289" s="5">
+        <v>1938850768</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="G289" s="4"/>
-      <c r="H289" s="6" t="s">
+      <c r="H289" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>708</v>
+        <v>805</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D290" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E290" s="5">
-        <v>1938348079</v>
+        <v>236</v>
+      </c>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="G290" s="4"/>
-      <c r="H290" s="7" t="s">
+      <c r="H290" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="E291" s="5">
-        <v>19997630860</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>714</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F291" s="4"/>
       <c r="G291" s="4"/>
-      <c r="H291" s="7" t="s">
+      <c r="H291" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D292" s="4"/>
-      <c r="E292" s="5"/>
+        <v>709</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E292" s="5">
+        <v>1938348079</v>
+      </c>
       <c r="F292" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="G292" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G292" s="4"/>
       <c r="H292" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="D293" s="4"/>
+        <v>712</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>713</v>
+      </c>
       <c r="E293" s="5">
-        <v>19997054080</v>
+        <v>19997630860</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="G293" s="4"/>
-      <c r="H293" s="6" t="s">
+      <c r="H293" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D294" s="4"/>
-      <c r="E294" s="5">
-        <v>3592480284</v>
-      </c>
+      <c r="E294" s="5"/>
       <c r="F294" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="G294" s="4"/>
-      <c r="H294" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H294" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -9630,17 +9665,17 @@
         <v>717</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="5">
-        <v>19974061580</v>
+        <v>19997054080</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>723</v>
+        <v>641</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="6" t="s">
@@ -9652,17 +9687,17 @@
         <v>717</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="5">
-        <v>19997892388</v>
+        <v>3592480284</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="6" t="s">
@@ -9674,21 +9709,19 @@
         <v>717</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="5">
-        <v>19992144704</v>
+        <v>19974061580</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G297" s="4" t="s">
-        <v>727</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="G297" s="4"/>
       <c r="H297" s="6" t="s">
         <v>762</v>
       </c>
@@ -9698,17 +9731,17 @@
         <v>717</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="5">
-        <v>19992679775</v>
+        <v>19997892388</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>731</v>
+        <v>641</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="6" t="s">
@@ -9720,14 +9753,14 @@
         <v>717</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="5">
-        <v>19975734486</v>
+        <v>19992144704</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>726</v>
@@ -9744,19 +9777,17 @@
         <v>717</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>739</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="D300" s="4"/>
       <c r="E300" s="5">
-        <v>19993480608</v>
+        <v>19992679775</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="6" t="s">
@@ -9768,19 +9799,21 @@
         <v>717</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4" t="s">
-        <v>722</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D301" s="4"/>
       <c r="E301" s="5">
-        <v>19992837841</v>
+        <v>19975734486</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="G301" s="4"/>
+        <v>726</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="H301" s="6" t="s">
         <v>762</v>
       </c>
@@ -9790,17 +9823,19 @@
         <v>717</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C302" s="4"/>
+        <v>737</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="D302" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E302" s="5">
-        <v>19991857696</v>
+        <v>19993480608</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="6" t="s">
@@ -9809,20 +9844,20 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="D303" s="4"/>
+        <v>734</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="E303" s="5">
-        <v>19991505521</v>
+        <v>19992837841</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>229</v>
+        <v>735</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="6" t="s">
@@ -9831,25 +9866,23 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="D304" s="4"/>
+        <v>734</v>
+      </c>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4" t="s">
+        <v>736</v>
+      </c>
       <c r="E304" s="5">
-        <v>19994915696</v>
+        <v>19991857696</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H304" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="G304" s="4"/>
+      <c r="H304" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -9867,60 +9900,113 @@
       <c r="E305" s="5"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
+      <c r="H305" s="7" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="5">
+        <v>19991505521</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G306" s="4"/>
+      <c r="H306" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="5">
+        <v>19994915696</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B308" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C308" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="E306" s="5">
+      <c r="D308" s="4"/>
+      <c r="E308" s="5">
         <v>19989081181</v>
       </c>
-      <c r="F306" s="6" t="s">
+      <c r="F308" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H306" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="s">
+      <c r="G308" s="4"/>
+      <c r="H308" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B309" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C309" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="E307" s="5">
+      <c r="D309" s="4"/>
+      <c r="E309" s="5">
         <v>19998063040</v>
       </c>
-      <c r="F307" s="6" t="s">
+      <c r="F309" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H307" s="6" t="s">
+      <c r="G309" s="4"/>
+      <c r="H309" s="7" t="s">
         <v>762</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H307" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+  <autoFilter ref="A1:H309" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
     <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="ok"/>
+      </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H307">
-      <sortCondition ref="A1:A307"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H309">
+      <sortCondition ref="A1:A309"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C144" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
+    <hyperlink ref="C146" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEF7CA-6CAA-4B44-9385-5F4C5671236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079C9E2-4C2C-1A43-8A94-4D38B2601596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$310</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="820">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2428,9 +2428,6 @@
     <t>Churrasqueiro</t>
   </si>
   <si>
-    <t>Doces</t>
-  </si>
-  <si>
     <t>Farmácia</t>
   </si>
   <si>
@@ -2499,6 +2496,12 @@
   </si>
   <si>
     <t>NOk</t>
+  </si>
+  <si>
+    <t>Ôxe Nina Brasil</t>
+  </si>
+  <si>
+    <t>Bolo de Rolo</t>
   </si>
 </sst>
 </file>
@@ -2936,11 +2939,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G309"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5566,7 +5569,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>310</v>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>313</v>
@@ -5610,21 +5613,21 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E118" s="5">
+        <v>19992113771</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -5633,17 +5636,15 @@
         <v>317</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D119" s="4"/>
-      <c r="E119" s="5">
-        <v>19970500222</v>
-      </c>
+      <c r="E119" s="5"/>
       <c r="F119" s="4" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="7" t="s">
@@ -5658,18 +5659,16 @@
         <v>317</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>19981550926</v>
+        <v>19970500222</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G120" s="4"/>
       <c r="H120" s="7" t="s">
         <v>762</v>
       </c>
@@ -5682,17 +5681,17 @@
         <v>317</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>19994915020</v>
+        <v>19981550926</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>762</v>
@@ -5706,16 +5705,18 @@
         <v>317</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>19994007804</v>
+        <v>19994915020</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G122" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H122" s="7" t="s">
         <v>762</v>
       </c>
@@ -5728,18 +5729,16 @@
         <v>317</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>19997348273</v>
+        <v>19994007804</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>330</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="7" t="s">
         <v>762</v>
       </c>
@@ -5752,18 +5751,18 @@
         <v>317</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>19992397490</v>
+        <v>19997348273</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G124" s="4"/>
+        <v>329</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="H124" s="7" t="s">
         <v>762</v>
       </c>
@@ -5776,16 +5775,16 @@
         <v>317</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E125" s="5">
-        <v>19974188185</v>
+        <v>19992397490</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="7" t="s">
@@ -5797,17 +5796,19 @@
         <v>317</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D126" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="E126" s="5">
-        <v>19971501816</v>
+        <v>19974188185</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="7" t="s">
@@ -5816,20 +5817,20 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>19983580744</v>
+        <v>19971501816</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="7" t="s">
@@ -5844,16 +5845,14 @@
         <v>347</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>351</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>19954381919</v>
+        <v>19983580744</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="7" t="s">
@@ -5868,16 +5867,16 @@
         <v>347</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>139</v>
+        <v>351</v>
       </c>
       <c r="E129" s="5">
-        <v>19996601477</v>
+        <v>19954381919</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="7" t="s">
@@ -5892,16 +5891,16 @@
         <v>347</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>332</v>
+        <v>139</v>
       </c>
       <c r="E130" s="5">
-        <v>19971501618</v>
+        <v>19996601477</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="7" t="s">
@@ -5916,16 +5915,16 @@
         <v>347</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E131" s="5">
-        <v>19998370990</v>
+        <v>19971501618</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>358</v>
+        <v>137</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="7" t="s">
@@ -5940,16 +5939,16 @@
         <v>347</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E132" s="5">
-        <v>11933442554</v>
+        <v>19998370990</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="7" t="s">
@@ -5958,72 +5957,72 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="E133" s="5">
-        <v>16997682703</v>
+        <v>11933442554</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G133" s="4"/>
       <c r="H133" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E134" s="5">
-        <v>19991841308</v>
+        <v>16997682703</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="H134" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>793</v>
+        <v>362</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>175</v>
+        <v>363</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="E135" s="5">
-        <v>19981486077</v>
+        <v>19991841308</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="7" t="s">
@@ -6032,70 +6031,70 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>365</v>
+        <v>793</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>365</v>
+        <v>174</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D136" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="E136" s="5">
-        <v>19974202908</v>
+        <v>19981486077</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>367</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>811</v>
+        <v>365</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>811</v>
+        <v>365</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>814</v>
+        <v>366</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5">
+        <v>19974202908</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="H137" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="E138" s="5">
-        <v>19993251330</v>
+        <v>812</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>813</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="7" t="s">
@@ -6104,33 +6103,37 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>372</v>
+        <v>810</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D139" s="4"/>
-      <c r="E139" s="5"/>
+        <v>814</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E139" s="5">
+        <v>19993251330</v>
+      </c>
       <c r="F139" s="4" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="6" t="s">
+      <c r="H139" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="5"/>
@@ -6144,20 +6147,18 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D141" s="4"/>
-      <c r="E141" s="5">
-        <v>1938353479</v>
-      </c>
+      <c r="E141" s="5"/>
       <c r="F141" s="4" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="6" t="s">
@@ -6166,25 +6167,23 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>376</v>
+        <v>795</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4" t="s">
-        <v>377</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>19991112126</v>
+        <v>1938353479</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H142" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6195,44 +6194,42 @@
       <c r="B143" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E143" s="5">
-        <v>19991615772</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="6" t="s">
+        <v>19991112126</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H143" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E144" s="5">
-        <v>19974054256</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H144" s="7" t="s">
+        <v>19991615772</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6241,37 +6238,43 @@
         <v>379</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D145" s="4"/>
+        <v>380</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="E145" s="5">
-        <v>19993876523</v>
+        <v>19974054256</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>749</v>
+        <v>385</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="D146" s="4"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5">
+        <v>19993876523</v>
+      </c>
       <c r="F146" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="6" t="s">
@@ -6280,46 +6283,42 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>797</v>
+        <v>388</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E147" s="5">
-        <v>19992397490</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="4" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="7" t="s">
+      <c r="H147" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>767</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E148" s="5">
-        <v>19974188185</v>
+        <v>19992397490</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="7" t="s">
@@ -6328,20 +6327,22 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C149" s="4"/>
+        <v>767</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="D149" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E149" s="5">
-        <v>19993365228</v>
+        <v>19974188185</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>193</v>
+        <v>342</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="7" t="s">
@@ -6350,20 +6351,20 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="E150" s="5">
-        <v>19982892852</v>
+        <v>19993365228</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="7" t="s">
@@ -6372,71 +6373,71 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="C151" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>19997151464</v>
+        <v>19982892852</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G151" s="4"/>
       <c r="H151" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="E152" s="5">
-        <v>199741500019</v>
+        <v>19997151464</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H152" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>393</v>
+        <v>796</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D153" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="E153" s="5">
-        <v>19999020595</v>
+        <v>199741500019</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="6" t="s">
+      <c r="H153" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6448,44 +6449,42 @@
         <v>393</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5">
+        <v>19999020595</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E155" s="5">
         <v>19991164395</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F155" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="9" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D155" s="4">
-        <v>3875.9299000000001</v>
-      </c>
-      <c r="E155" s="5">
-        <v>19991663519</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="G155" s="4"/>
-      <c r="H155" s="6" t="s">
-        <v>817</v>
+      <c r="H155" s="9" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -6534,28 +6533,28 @@
         <v>762</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>406</v>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="D158" s="4">
+        <v>3875.9299000000001</v>
       </c>
       <c r="E158" s="5">
-        <v>19996603159</v>
+        <v>19991663519</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="7" t="s">
-        <v>762</v>
+      <c r="H158" s="6" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6563,17 +6562,19 @@
         <v>406</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D159" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="E159" s="5">
-        <v>19983069292</v>
+        <v>19996603159</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>758</v>
+        <v>395</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="7" t="s">
@@ -6585,17 +6586,17 @@
         <v>406</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>1936561736</v>
+        <v>19983069292</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>413</v>
+        <v>758</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="7" t="s">
@@ -6607,19 +6608,17 @@
         <v>406</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>416</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>19997103010</v>
+        <v>1936561736</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="7" t="s">
@@ -6631,19 +6630,19 @@
         <v>406</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E162" s="5">
-        <v>19974233582</v>
+        <v>19997103010</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="7" t="s">
@@ -6652,93 +6651,93 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>798</v>
+        <v>406</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>771</v>
+        <v>418</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>644</v>
+        <v>419</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="E163" s="5">
+        <v>19974233582</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="6" t="s">
+      <c r="H163" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="5">
-        <v>19995521215</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
       <c r="H164" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>422</v>
+        <v>772</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>19974195470</v>
+        <v>19995521215</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>425</v>
+        <v>647</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H165" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H165" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D166" s="4"/>
+        <v>423</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E166" s="5">
-        <v>19991752220</v>
+        <v>19974195470</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>762</v>
@@ -6746,25 +6745,23 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>427</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>432</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>19970891250</v>
+        <v>19991752220</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>762</v>
@@ -6772,50 +6769,50 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D168" s="4"/>
+        <v>431</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="E168" s="5">
-        <v>19987431126</v>
+        <v>19970891250</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>437</v>
+        <v>797</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>369</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>1937273393</v>
+        <v>19987431126</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>760</v>
+        <v>137</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="6" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6826,16 +6823,22 @@
         <v>437</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="5"/>
+        <v>368</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E170" s="5">
+        <v>1937273393</v>
+      </c>
       <c r="F170" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="6" t="s">
-        <v>762</v>
+      <c r="G170" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6846,14 +6849,12 @@
         <v>437</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="D171" s="4"/>
-      <c r="E171" s="5">
-        <v>19995881539</v>
-      </c>
+      <c r="E171" s="5"/>
       <c r="F171" s="4" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="6" t="s">
@@ -6862,47 +6863,45 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>799</v>
+        <v>437</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>19993419181</v>
+        <v>19995881539</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H172" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>440</v>
+        <v>798</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>19983990026</v>
+        <v>19993419181</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>762</v>
@@ -6915,64 +6914,64 @@
       <c r="B174" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>19984497169</v>
+        <v>19983990026</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G174" s="4"/>
+        <v>442</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H174" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>19987193408</v>
+        <v>19984497169</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G175" s="4"/>
       <c r="H175" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>450</v>
+        <v>799</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D176" s="4"/>
+        <v>447</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="E176" s="5">
-        <v>19993413737</v>
+        <v>19987193408</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H176" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6984,14 +6983,18 @@
         <v>450</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5">
+        <v>19993413737</v>
+      </c>
       <c r="F177" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G177" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="H177" s="6" t="s">
         <v>762</v>
       </c>
@@ -7001,22 +7004,18 @@
         <v>450</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>773</v>
+        <v>450</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="E178" s="5">
-        <v>11996202178</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="5"/>
       <c r="F178" s="4" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7025,67 +7024,67 @@
         <v>450</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D179" s="4"/>
+        <v>648</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="E179" s="5">
-        <v>19991683732</v>
+        <v>11996202178</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G179" s="4"/>
       <c r="H179" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>456</v>
+        <v>769</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>457</v>
+        <v>558</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>19953985696</v>
+        <v>19991683732</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G180" s="4"/>
-      <c r="H180" s="6" t="s">
-        <v>762</v>
+        <v>559</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>19992924435</v>
+        <v>19953985696</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G181" s="4"/>
       <c r="H181" s="6" t="s">
         <v>762</v>
       </c>
@@ -7098,16 +7097,18 @@
         <v>458</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>19997144717</v>
+        <v>19992924435</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G182" s="4"/>
+        <v>460</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="H182" s="6" t="s">
         <v>762</v>
       </c>
@@ -7120,14 +7121,14 @@
         <v>458</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>779</v>
+        <v>462</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>19974111755</v>
+        <v>19997144717</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="6" t="s">
@@ -7142,14 +7143,14 @@
         <v>458</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>19982563026</v>
+        <v>19974111755</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="6" t="s">
@@ -7158,45 +7159,47 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>471</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>19991943844</v>
+        <v>19982563026</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G185" s="4"/>
-      <c r="H185" s="7" t="s">
+      <c r="H185" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>463</v>
+        <v>768</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>463</v>
+        <v>768</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D186" s="4"/>
-      <c r="E186" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E186" s="5">
+        <v>19991943844</v>
+      </c>
       <c r="F186" s="4" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="6" t="s">
+      <c r="H186" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7208,19 +7211,15 @@
         <v>463</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E187" s="5">
-        <v>19974029553</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="5"/>
       <c r="F187" s="4" t="s">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="7" t="s">
+      <c r="H187" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7232,16 +7231,16 @@
         <v>463</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="E188" s="5">
-        <v>19998383259</v>
+        <v>19974029553</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="7" t="s">
@@ -7250,23 +7249,25 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D189" s="4"/>
+        <v>467</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="E189" s="5">
-        <v>19981950110</v>
+        <v>19998383259</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>145</v>
+        <v>469</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="6" t="s">
+      <c r="H189" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7278,35 +7279,39 @@
         <v>472</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>475</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>19997142750</v>
+        <v>19981950110</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>476</v>
+        <v>145</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="7" t="s">
+      <c r="H190" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>801</v>
+        <v>472</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D191" s="4"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="4"/>
+        <v>474</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E191" s="5">
+        <v>19997142750</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>476</v>
+      </c>
       <c r="G191" s="4"/>
       <c r="H191" s="7" t="s">
         <v>762</v>
@@ -7314,23 +7319,17 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E192" s="5">
-        <v>19999764748</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="7" t="s">
         <v>762</v>
@@ -7338,18 +7337,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+        <v>479</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="E193" s="5">
-        <v>19996623390</v>
+        <v>19999764748</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>483</v>
+        <v>327</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="7" t="s">
@@ -7358,20 +7361,18 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C194" s="4"/>
-      <c r="D194" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>19997684981</v>
+        <v>19996623390</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>145</v>
+        <v>483</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="7" t="s">
@@ -7380,20 +7381,20 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E195" s="5"/>
+        <v>484</v>
+      </c>
+      <c r="E195" s="5">
+        <v>19997684981</v>
+      </c>
       <c r="F195" s="4" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="7" t="s">
@@ -7402,68 +7403,66 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E196" s="5">
-        <v>1938945766</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="E196" s="5"/>
       <c r="F196" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>490</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G196" s="4"/>
       <c r="H196" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D197" s="4"/>
-      <c r="E197" s="5"/>
+        <v>488</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E197" s="5">
+        <v>1938945766</v>
+      </c>
       <c r="F197" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G197" s="4"/>
+        <v>294</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="H197" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E198" s="5">
-        <v>19981950110</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="5"/>
       <c r="F198" s="4" t="s">
-        <v>145</v>
+        <v>493</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="7" t="s">
@@ -7472,22 +7471,22 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E199" s="5">
-        <v>19999281714</v>
+        <v>19981950110</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>497</v>
+        <v>145</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="7" t="s">
@@ -7496,68 +7495,70 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E200" s="5">
-        <v>1933182928</v>
+        <v>19999281714</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="G200" s="4"/>
       <c r="H200" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D201" s="4"/>
+        <v>502</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="E201" s="5">
-        <v>19994491033</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="G201" s="4"/>
+        <v>1933182928</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="H201" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E202" s="5"/>
-      <c r="F202" s="4" t="s">
-        <v>71</v>
+        <v>507</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5">
+        <v>19994491033</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="7" t="s">
@@ -7566,20 +7567,20 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D203" s="4"/>
-      <c r="E203" s="5">
-        <v>19981999121</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E203" s="5"/>
       <c r="F203" s="4" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="7" t="s">
@@ -7588,22 +7589,20 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>516</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>1999143786</v>
+        <v>19981999121</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="7" t="s">
@@ -7612,22 +7611,22 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E205" s="5">
-        <v>19984040203</v>
+        <v>1999143786</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="7" t="s">
@@ -7636,20 +7635,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D206" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="E206" s="5">
-        <v>19999108010</v>
+        <v>19984040203</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>57</v>
+        <v>521</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="7" t="s">
@@ -7658,47 +7659,45 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>1938343948</v>
+        <v>19999108010</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G207" s="4"/>
       <c r="H207" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>19996973088</v>
+        <v>1938343948</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>762</v>
@@ -7706,40 +7705,42 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D209" s="4"/>
-      <c r="E209" s="5"/>
+      <c r="E209" s="5">
+        <v>19996973088</v>
+      </c>
       <c r="F209" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G209" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H209" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D210" s="4"/>
-      <c r="E210" s="5">
-        <v>1999723038</v>
-      </c>
+      <c r="E210" s="5"/>
       <c r="F210" s="4" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="7" t="s">
@@ -7748,49 +7749,45 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>19998881817</v>
+        <v>1999723038</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G211" s="4"/>
       <c r="H211" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>535</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>19996205599</v>
+        <v>19998881817</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>753</v>
+        <v>188</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>762</v>
@@ -7798,42 +7795,44 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D213" s="4"/>
-      <c r="E213" s="5"/>
+        <v>534</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E213" s="5">
+        <v>19996205599</v>
+      </c>
       <c r="F213" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G213" s="4"/>
+        <v>536</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="H213" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E214" s="5">
-        <v>19975413838</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="7" t="s">
@@ -7842,68 +7841,70 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>539</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D215" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>541</v>
+      </c>
       <c r="E215" s="5">
-        <v>19999482072</v>
+        <v>19975413838</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>544</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G215" s="4"/>
       <c r="H215" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>547</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>19991094585</v>
+        <v>19999482072</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G216" s="4"/>
+        <v>543</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="H216" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C217" s="4"/>
+        <v>545</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="D217" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E217" s="5">
-        <v>1938752655</v>
+        <v>19991094585</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>550</v>
+        <v>305</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="7" t="s">
@@ -7912,22 +7913,20 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>551</v>
-      </c>
+      <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E218" s="5">
-        <v>19997947989</v>
+        <v>1938752655</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="7" t="s">
@@ -7936,19 +7935,23 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="4"/>
+        <v>552</v>
+      </c>
+      <c r="E219" s="5">
+        <v>19997947989</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G219" s="4"/>
       <c r="H219" s="7" t="s">
         <v>762</v>
@@ -7956,86 +7959,84 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>806</v>
+        <v>553</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D220" s="4"/>
-      <c r="E220" s="5">
-        <v>1933927524</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E220" s="5"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
       <c r="H220" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>775</v>
+        <v>556</v>
       </c>
       <c r="D221" s="4"/>
-      <c r="E221" s="5"/>
+      <c r="E221" s="5">
+        <v>1933927524</v>
+      </c>
       <c r="F221" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G221" s="4"/>
-      <c r="H221" s="6" t="s">
-        <v>760</v>
+        <v>557</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>562</v>
+        <v>776</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>562</v>
+        <v>776</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>563</v>
+        <v>775</v>
       </c>
       <c r="D222" s="4"/>
-      <c r="E222" s="5">
-        <v>19978051812</v>
-      </c>
+      <c r="E222" s="5"/>
       <c r="F222" s="4" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>419</v>
+        <v>563</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>19993927869</v>
+        <v>19978051812</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="6" t="s">
@@ -8047,17 +8048,17 @@
         <v>564</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>566</v>
+        <v>419</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>19971565019</v>
+        <v>19993927869</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="6" t="s">
@@ -8066,118 +8067,118 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>802</v>
+        <v>564</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>19998914675</v>
+        <v>19971565019</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="H225" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G225" s="4"/>
+      <c r="H225" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>19992366598</v>
+        <v>19998914675</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G226" s="4"/>
+        <v>583</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="H226" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>807</v>
+        <v>578</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>19994777732</v>
+        <v>19992366598</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="G227" s="4"/>
       <c r="H227" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>560</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>19983397673</v>
+        <v>19994777732</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G228" s="4"/>
+        <v>585</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="H228" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>586</v>
+        <v>802</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>586</v>
+        <v>802</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D229" s="4"/>
+        <v>759</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="E229" s="5">
-        <v>19983671900</v>
+        <v>19983397673</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>245</v>
+        <v>561</v>
       </c>
       <c r="G229" s="4"/>
-      <c r="H229" s="6" t="s">
-        <v>762</v>
+      <c r="H229" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -8188,14 +8189,14 @@
         <v>586</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>19989361257</v>
+        <v>19983671900</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="6" t="s">
@@ -8210,14 +8211,14 @@
         <v>586</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>19991056865</v>
+        <v>19989361257</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>137</v>
+        <v>483</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="6" t="s">
@@ -8232,14 +8233,14 @@
         <v>586</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>19991086332</v>
+        <v>19991056865</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="6" t="s">
@@ -8248,20 +8249,20 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>19998406883</v>
+        <v>19991086332</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="6" t="s">
@@ -8273,17 +8274,17 @@
         <v>591</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>19996918282</v>
+        <v>19998406883</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="6" t="s">
@@ -8295,21 +8296,19 @@
         <v>591</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>19989384836</v>
+        <v>19996918282</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>599</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="G235" s="4"/>
       <c r="H235" s="6" t="s">
         <v>762</v>
       </c>
@@ -8322,18 +8321,18 @@
         <v>596</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>601</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>19983671900</v>
+        <v>19989384836</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G236" s="4"/>
+        <v>598</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="H236" s="6" t="s">
         <v>762</v>
       </c>
@@ -8343,19 +8342,19 @@
         <v>591</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E237" s="5">
-        <v>19981766205</v>
+        <v>19983671900</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>605</v>
+        <v>9</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="6" t="s">
@@ -8367,17 +8366,19 @@
         <v>591</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D238" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="E238" s="5">
-        <v>19997122002</v>
+        <v>19981766205</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="6" t="s">
@@ -8386,25 +8387,23 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>611</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>9181623568</v>
+        <v>19997122002</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>112</v>
+        <v>608</v>
       </c>
       <c r="G239" s="4"/>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8416,16 +8415,16 @@
         <v>609</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E240" s="5">
-        <v>19996785936</v>
+        <v>9181623568</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="7" t="s">
@@ -8434,65 +8433,67 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E241" s="5">
-        <v>19971075809</v>
+        <v>19996785936</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G241" s="4"/>
       <c r="H241" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>804</v>
+        <v>614</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D242" s="4"/>
+        <v>615</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="E242" s="5">
-        <v>19989593632</v>
+        <v>19971075809</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G242" s="4"/>
-      <c r="H242" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H242" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>19999958939</v>
+        <v>19989593632</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>137</v>
@@ -8504,17 +8505,17 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>19991955454</v>
+        <v>19999958939</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>137</v>
@@ -8526,20 +8527,20 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>19991966446</v>
+        <v>19991955454</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="6" t="s">
@@ -8548,20 +8549,20 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>19999958939</v>
+        <v>19991966446</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="6" t="s">
@@ -8570,18 +8571,20 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D247" s="4"/>
-      <c r="E247" s="5"/>
+      <c r="E247" s="5">
+        <v>19999958939</v>
+      </c>
       <c r="F247" s="4" t="s">
-        <v>628</v>
+        <v>137</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="6" t="s">
@@ -8590,20 +8593,18 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D248" s="4"/>
-      <c r="E248" s="5">
-        <v>19997467644</v>
-      </c>
+      <c r="E248" s="5"/>
       <c r="F248" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="6" t="s">
@@ -8612,20 +8613,20 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>19988219734</v>
+        <v>19997467644</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="6" t="s">
@@ -8634,20 +8635,20 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>19987628001</v>
+        <v>19988219734</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>135</v>
+        <v>632</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="6" t="s">
@@ -8656,20 +8657,20 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>19991744783</v>
+        <v>19987628001</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>626</v>
+        <v>135</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="6" t="s">
@@ -8678,18 +8679,20 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>624</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D252" s="4"/>
-      <c r="E252" s="5"/>
+      <c r="E252" s="5">
+        <v>19991744783</v>
+      </c>
       <c r="F252" s="4" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="6" t="s">
@@ -8698,20 +8701,18 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>640</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D253" s="4"/>
       <c r="E253" s="5"/>
       <c r="F253" s="4" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="6" t="s">
@@ -8720,18 +8721,20 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D254" s="4"/>
+        <v>639</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="E254" s="5"/>
       <c r="F254" s="4" t="s">
-        <v>150</v>
+        <v>641</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="6" t="s">
@@ -8740,20 +8743,18 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>642</v>
+        <v>803</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D255" s="4"/>
-      <c r="E255" s="5">
-        <v>19995384333</v>
-      </c>
+      <c r="E255" s="5"/>
       <c r="F255" s="4" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="6" t="s">
@@ -8762,23 +8763,23 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>19989963229</v>
+        <v>19995384333</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="G256" s="4"/>
-      <c r="H256" s="7" t="s">
+      <c r="H256" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8790,14 +8791,14 @@
         <v>770</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>19981285216</v>
+        <v>19989963229</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="7" t="s">
@@ -8812,18 +8813,16 @@
         <v>770</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>19992691215</v>
+        <v>19981285216</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>571</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="G258" s="4"/>
       <c r="H258" s="7" t="s">
         <v>762</v>
       </c>
@@ -8836,18 +8835,18 @@
         <v>770</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>573</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D259" s="4"/>
       <c r="E259" s="5">
-        <v>19989436892</v>
+        <v>19992691215</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G259" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="H259" s="7" t="s">
         <v>762</v>
       </c>
@@ -8859,92 +8858,90 @@
       <c r="B260" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C260" s="4"/>
+      <c r="C260" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="D260" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E260" s="5">
-        <v>19997341650</v>
+        <v>19989436892</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>577</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="G260" s="4"/>
       <c r="H260" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>650</v>
+        <v>770</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>650</v>
+        <v>770</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="E261" s="5">
-        <v>19991129199</v>
+        <v>19997341650</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G261" s="4"/>
-      <c r="H261" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H261" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>653</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C262" s="4"/>
       <c r="D262" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E262" s="5">
-        <v>19991558624</v>
+        <v>19991129199</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>655</v>
+        <v>11</v>
       </c>
       <c r="G262" s="4"/>
-      <c r="H262" s="7" t="s">
+      <c r="H262" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E263" s="5">
-        <v>19996132209</v>
+        <v>19991558624</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="G263" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H263" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="G263" s="4"/>
+      <c r="H263" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8956,38 +8953,42 @@
         <v>656</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E264" s="5">
-        <v>19988563936</v>
+        <v>19996132209</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="G264" s="4"/>
+        <v>659</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="H264" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D265" s="4"/>
+        <v>660</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>661</v>
+      </c>
       <c r="E265" s="5">
-        <v>19999839019</v>
+        <v>19988563936</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="6" t="s">
@@ -9001,42 +9002,38 @@
       <c r="B266" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C266" s="4"/>
+      <c r="C266" s="4" t="s">
+        <v>664</v>
+      </c>
       <c r="D266" s="4"/>
-      <c r="E266" s="5"/>
+      <c r="E266" s="5">
+        <v>19999839019</v>
+      </c>
       <c r="F266" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="G266" s="4"/>
       <c r="H266" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E267" s="5">
-        <v>11994721855</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="5"/>
       <c r="F267" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H267" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H267" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -9045,19 +9042,23 @@
         <v>676</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D268" s="4"/>
+        <v>668</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>669</v>
+      </c>
       <c r="E268" s="5">
-        <v>19993772262</v>
+        <v>11994721855</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G268" s="4"/>
+        <v>670</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="H268" s="7" t="s">
         <v>762</v>
       </c>
@@ -9067,43 +9068,43 @@
         <v>676</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4" t="s">
-        <v>677</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D269" s="4"/>
       <c r="E269" s="5">
-        <v>19997570737</v>
+        <v>19993772262</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="G269" s="4"/>
       <c r="H269" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="D270" s="4"/>
+        <v>676</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="E270" s="5">
-        <v>19989060201</v>
+        <v>19997570737</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G270" s="4"/>
+        <v>641</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H270" s="7" t="s">
         <v>762</v>
       </c>
@@ -9116,18 +9117,16 @@
         <v>674</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="5">
-        <v>19992879019</v>
+        <v>19989060201</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>679</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G271" s="4"/>
       <c r="H271" s="7" t="s">
         <v>762</v>
       </c>
@@ -9140,16 +9139,18 @@
         <v>674</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E272" s="5"/>
+        <v>678</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="5">
+        <v>19992879019</v>
+      </c>
       <c r="F272" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G272" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>679</v>
+      </c>
       <c r="H272" s="7" t="s">
         <v>762</v>
       </c>
@@ -9162,20 +9163,16 @@
         <v>674</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="E273" s="5">
-        <v>19971000078</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="E273" s="5"/>
       <c r="F273" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="G273" s="4" t="s">
-        <v>685</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G273" s="4"/>
       <c r="H273" s="7" t="s">
         <v>762</v>
       </c>
@@ -9187,17 +9184,21 @@
       <c r="B274" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C274" s="4"/>
+      <c r="C274" s="4" t="s">
+        <v>682</v>
+      </c>
       <c r="D274" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E274" s="5">
-        <v>19996532656</v>
+        <v>19971000078</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G274" s="4"/>
+        <v>684</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="H274" s="7" t="s">
         <v>762</v>
       </c>
@@ -9209,15 +9210,15 @@
       <c r="B275" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4" t="s">
+        <v>686</v>
+      </c>
       <c r="E275" s="5">
-        <v>19970925870</v>
+        <v>19996532656</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="7" t="s">
@@ -9232,16 +9233,14 @@
         <v>674</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>689</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="D276" s="4"/>
       <c r="E276" s="5">
-        <v>19997203049</v>
+        <v>19970925870</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="7" t="s">
@@ -9253,47 +9252,47 @@
         <v>674</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E277" s="5">
-        <v>19989560366</v>
+        <v>19997203049</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>693</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G277" s="4"/>
       <c r="H277" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>774</v>
+        <v>690</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E278" s="5">
-        <v>19997698086</v>
+        <v>19989560366</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G278" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>693</v>
+      </c>
       <c r="H278" s="7" t="s">
         <v>762</v>
       </c>
@@ -9306,44 +9305,46 @@
         <v>774</v>
       </c>
       <c r="C279" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E279" s="5">
+        <v>19997698086</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G279" s="4"/>
+      <c r="H279" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="D280" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E279" s="5">
+      <c r="E280" s="5">
         <v>19997861827</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F280" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="G279" s="4" t="s">
+      <c r="G280" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="H279" s="7" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="D280" s="4"/>
-      <c r="E280" s="5">
-        <v>19999098550</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G280" s="4"/>
-      <c r="H280" s="6" t="s">
-        <v>817</v>
+      <c r="H280" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -9394,48 +9395,46 @@
         <v>762</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>790</v>
+        <v>703</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>117</v>
+        <v>703</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>118</v>
+        <v>704</v>
       </c>
       <c r="D283" s="4"/>
-      <c r="E283" s="5"/>
+      <c r="E283" s="5">
+        <v>19999098550</v>
+      </c>
       <c r="F283" s="4" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="6" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E284" s="5">
-        <v>19987814978</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D284" s="4"/>
+      <c r="E284" s="5"/>
       <c r="F284" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H284" s="7" t="s">
-        <v>762</v>
+        <v>119</v>
+      </c>
+      <c r="G284" s="4"/>
+      <c r="H284" s="6" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -9445,10 +9444,10 @@
       <c r="B285" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="4"/>
+      <c r="D285" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D285" s="4"/>
       <c r="E285" s="5">
         <v>19987814978</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>137</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>762</v>
@@ -9470,18 +9469,18 @@
         <v>705</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>782</v>
+        <v>706</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="5">
+        <v>19987814978</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G286" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="H286" s="7" t="s">
         <v>762</v>
       </c>
@@ -9494,14 +9493,16 @@
         <v>705</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="D287" s="4"/>
-      <c r="E287" s="5">
-        <v>19994106988</v>
+        <v>279</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>785</v>
+        <v>7</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="7" t="s">
@@ -9516,11 +9517,11 @@
         <v>705</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="5">
-        <v>19989645385</v>
+        <v>19994106988</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>785</v>
@@ -9538,14 +9539,14 @@
         <v>705</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="5">
-        <v>1938850768</v>
+        <v>19989645385</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>392</v>
+        <v>785</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="7" t="s">
@@ -9554,37 +9555,41 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>805</v>
+        <v>705</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C290" s="4"/>
+        <v>705</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>784</v>
+      </c>
       <c r="D290" s="4"/>
-      <c r="E290" s="5" t="s">
-        <v>766</v>
+      <c r="E290" s="5">
+        <v>1938850768</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="G290" s="4"/>
-      <c r="H290" s="6" t="s">
+      <c r="H290" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>778</v>
+        <v>236</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="F291" s="4"/>
+        <v>766</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="G291" s="4"/>
       <c r="H291" s="6" t="s">
         <v>762</v>
@@ -9592,46 +9597,40 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E292" s="5">
-        <v>1938348079</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F292" s="4"/>
       <c r="G292" s="4"/>
-      <c r="H292" s="7" t="s">
+      <c r="H292" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E293" s="5">
-        <v>19997630860</v>
+        <v>1938348079</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>714</v>
+        <v>187</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="7" t="s">
@@ -9646,39 +9645,41 @@
         <v>711</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D294" s="4"/>
-      <c r="E294" s="5"/>
+        <v>712</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="E294" s="5">
+        <v>19997630860</v>
+      </c>
       <c r="F294" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="G294" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="G294" s="4"/>
       <c r="H294" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D295" s="4"/>
-      <c r="E295" s="5">
-        <v>19997054080</v>
-      </c>
+      <c r="E295" s="5"/>
       <c r="F295" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="G295" s="4"/>
-      <c r="H295" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H295" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -9687,17 +9688,17 @@
         <v>717</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="5">
-        <v>3592480284</v>
+        <v>19997054080</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>721</v>
+        <v>641</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="6" t="s">
@@ -9712,14 +9713,14 @@
         <v>719</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="5">
-        <v>19974061580</v>
+        <v>3592480284</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="6" t="s">
@@ -9731,17 +9732,17 @@
         <v>717</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="5">
-        <v>19997892388</v>
+        <v>19974061580</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="6" t="s">
@@ -9753,21 +9754,19 @@
         <v>717</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="5">
-        <v>19992144704</v>
+        <v>19997892388</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>727</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="G299" s="4"/>
       <c r="H299" s="6" t="s">
         <v>762</v>
       </c>
@@ -9780,16 +9779,18 @@
         <v>724</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="5">
-        <v>19992679775</v>
+        <v>19992144704</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="G300" s="4"/>
+        <v>726</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="H300" s="6" t="s">
         <v>762</v>
       </c>
@@ -9799,21 +9800,19 @@
         <v>717</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="5">
-        <v>19975734486</v>
+        <v>19992679775</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>727</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="G301" s="4"/>
       <c r="H301" s="6" t="s">
         <v>762</v>
       </c>
@@ -9823,21 +9822,21 @@
         <v>717</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>739</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D302" s="4"/>
       <c r="E302" s="5">
-        <v>19993480608</v>
+        <v>19975734486</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="G302" s="4"/>
+        <v>726</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="H302" s="6" t="s">
         <v>762</v>
       </c>
@@ -9847,17 +9846,19 @@
         <v>717</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C303" s="4"/>
+        <v>737</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="D303" s="4" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="E303" s="5">
-        <v>19992837841</v>
+        <v>19993480608</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="6" t="s">
@@ -9873,10 +9874,10 @@
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="E304" s="5">
-        <v>19991857696</v>
+        <v>19992837841</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>735</v>
@@ -9886,22 +9887,26 @@
         <v>762</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="D305" s="4"/>
-      <c r="E305" s="5"/>
-      <c r="F305" s="4"/>
+        <v>734</v>
+      </c>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E305" s="5">
+        <v>19991857696</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>735</v>
+      </c>
       <c r="G305" s="4"/>
-      <c r="H305" s="7" t="s">
-        <v>818</v>
+      <c r="H305" s="6" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -9950,63 +9955,78 @@
         <v>762</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>808</v>
+        <v>746</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>808</v>
+        <v>746</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>809</v>
+        <v>747</v>
       </c>
       <c r="D308" s="4"/>
-      <c r="E308" s="5">
-        <v>19989081181</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="E308" s="5"/>
+      <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="7" t="s">
-        <v>762</v>
+        <v>817</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="D309" s="4"/>
       <c r="E309" s="5">
-        <v>19998063040</v>
+        <v>19989081181</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="7" t="s">
         <v>762</v>
       </c>
     </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="5">
+        <v>19998063040</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G310" s="4"/>
+      <c r="H310" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H309" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+  <autoFilter ref="A1:H310" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
     <filterColumn colId="7">
       <filters>
         <filter val="ok"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H309">
-      <sortCondition ref="A1:A309"/>
-    </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C146" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
+    <hyperlink ref="C147" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079C9E2-4C2C-1A43-8A94-4D38B2601596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A618F-660A-164F-B074-3CBCE2106FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -2942,8 +2942,8 @@
   <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G310"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3449,71 +3449,65 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>789</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="E23" s="5">
-        <v>19996601477</v>
+        <v>19994944253</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>789</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="E24" s="5">
-        <v>3191360575</v>
+        <v>19982768600</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>789</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>818</v>
+      </c>
       <c r="E25" s="5">
-        <v>19993254761</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
+        <v>19992113771</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -3525,14 +3519,16 @@
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E26" s="5">
-        <v>19981241233</v>
+        <v>19996601477</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
@@ -3547,11 +3543,17 @@
         <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3191360575</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="7" t="s">
         <v>762</v>
@@ -3562,21 +3564,19 @@
         <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5">
-        <v>19974238015</v>
+        <v>19993254761</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="7" t="s">
         <v>762</v>
       </c>
@@ -3586,23 +3586,19 @@
         <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>752</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="5">
-        <v>19954381919</v>
+        <v>19981241233</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
         <v>762</v>
       </c>
@@ -3612,20 +3608,14 @@
         <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="5">
-        <v>19991286174</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="7" t="s">
         <v>762</v>
@@ -3636,20 +3626,20 @@
         <v>63</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5">
-        <v>19974105665</v>
+        <v>19974238015</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>762</v>
@@ -3657,46 +3647,48 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>752</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5">
-        <v>19998065271</v>
+        <v>19954381919</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E33" s="5">
-        <v>19998629960</v>
+        <v>19991286174</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="7" t="s">
@@ -3705,68 +3697,70 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5">
-        <v>19974170101</v>
+        <v>19974105665</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H34" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E35" s="5">
-        <v>19997710440</v>
+        <v>19998065271</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E36" s="5">
-        <v>19999616541</v>
+        <v>19998629960</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="7" t="s">
@@ -3775,20 +3769,20 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5">
-        <v>19980652714</v>
+        <v>19974170101</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="7" t="s">
@@ -3797,44 +3791,46 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E38" s="5">
-        <v>19995140494</v>
+        <v>19997710440</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H38" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5">
-        <v>19982323481</v>
+        <v>19999616541</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
@@ -3849,14 +3845,14 @@
         <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5">
-        <v>19974075491</v>
+        <v>19980652714</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="7" t="s">
@@ -3865,20 +3861,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E41" s="5">
-        <v>19994963060</v>
+        <v>19995140494</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="7" t="s">
@@ -3893,16 +3891,14 @@
         <v>98</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="5">
-        <v>19997710440</v>
+        <v>19982323481</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="7" t="s">
@@ -3911,119 +3907,117 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="5">
-        <v>19974053481</v>
+        <v>19974075491</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="6" t="s">
-        <v>760</v>
+      <c r="H43" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E44" s="5">
-        <v>19947550139</v>
+        <v>19994963060</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>791</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E45" s="5">
-        <v>19997228765</v>
+        <v>19997710440</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>791</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E46" s="5">
-        <v>1938759151</v>
+        <v>19974053481</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>791</v>
+        <v>123</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E47" s="5">
-        <v>1925133782</v>
+        <v>19947550139</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -4032,17 +4026,19 @@
         <v>791</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="E48" s="5">
-        <v>19996891354</v>
+        <v>19997228765</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="6" t="s">
@@ -4054,17 +4050,19 @@
         <v>791</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>764</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E49" s="5">
-        <v>19998533866</v>
+        <v>1938759151</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="6" t="s">
@@ -4076,17 +4074,17 @@
         <v>791</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>764</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5">
-        <v>19992414567</v>
+        <v>1925133782</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="6" t="s">
@@ -4098,21 +4096,19 @@
         <v>791</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>765</v>
+        <v>138</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5">
-        <v>19974123102</v>
+        <v>19996891354</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="6" t="s">
         <v>762</v>
       </c>
@@ -4122,17 +4118,17 @@
         <v>791</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5">
-        <v>19978269342</v>
+        <v>19998533866</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="6" t="s">
@@ -4144,21 +4140,19 @@
         <v>791</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5">
-        <v>19997228765</v>
+        <v>19992414567</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="6" t="s">
         <v>762</v>
       </c>
@@ -4168,21 +4162,21 @@
         <v>791</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="5">
-        <v>19981296616</v>
+        <v>19974123102</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="H54" s="6" t="s">
         <v>762</v>
       </c>
@@ -4192,15 +4186,17 @@
         <v>791</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>19978269342</v>
+      </c>
       <c r="F55" s="4" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="6" t="s">
@@ -4209,164 +4205,160 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>140</v>
+        <v>791</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>763</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5">
-        <v>19983443309</v>
+        <v>19997228765</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H56" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>140</v>
+        <v>791</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>763</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="E57" s="5">
-        <v>19925163605</v>
+        <v>19981296616</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>146</v>
+        <v>791</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>763</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="5">
-        <v>1938943730</v>
-      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5">
-        <v>19993628716</v>
+        <v>19983443309</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E60" s="5">
-        <v>19997792410</v>
+        <v>19925163605</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="5">
-        <v>19991571278</v>
+        <v>1938943730</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="7" t="s">
-        <v>762</v>
+      <c r="H61" s="6" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="5">
-        <v>19995001992</v>
-      </c>
-      <c r="F62" s="4"/>
+        <v>19993628716</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="7" t="s">
-        <v>762</v>
+      <c r="H62" s="6" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4377,17 +4369,19 @@
         <v>151</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="E63" s="5">
+        <v>19997792410</v>
+      </c>
       <c r="F63" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>762</v>
@@ -4395,103 +4389,113 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E64" s="5">
-        <v>19992931993</v>
+        <v>19991571278</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>792</v>
+        <v>151</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="E65" s="5">
+        <v>19995001992</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>792</v>
+        <v>151</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="6" t="s">
+      <c r="F66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>792</v>
+        <v>161</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>786</v>
+        <v>162</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="6" t="s">
+      <c r="E67" s="5">
+        <v>19992931993</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>171</v>
+        <v>792</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5">
-        <v>19993006755</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="6" t="s">
         <v>762</v>
@@ -4499,120 +4503,108 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>178</v>
+        <v>792</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="5">
-        <v>19997743011</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>178</v>
+        <v>792</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="5">
-        <v>19998044958</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>19974117768</v>
+        <v>19993006755</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H71" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>19993384323</v>
+        <v>19997743011</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="E73" s="5">
-        <v>19974117768</v>
+        <v>19998044958</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H73" s="7" t="s">
         <v>762</v>
       </c>
@@ -4625,17 +4617,19 @@
         <v>184</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="E74" s="5">
-        <v>19998087893</v>
+        <v>19974117768</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>196</v>
+        <v>755</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>762</v>
@@ -4643,42 +4637,44 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>794</v>
+        <v>184</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>19981177545</v>
+        <v>19993384323</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="H75" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>794</v>
+        <v>184</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>19997577471</v>
+        <v>19974117768</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="7" t="s">
@@ -4687,22 +4683,24 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>794</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>19981614616</v>
+        <v>19998087893</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H77" s="7" t="s">
         <v>762</v>
       </c>
@@ -4716,13 +4714,13 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E78" s="5">
-        <v>19981354844</v>
+        <v>19981177545</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="7" t="s">
@@ -4734,19 +4732,17 @@
         <v>794</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E79" s="5">
-        <v>19998119589</v>
+        <v>19997577471</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="7" t="s">
@@ -4758,43 +4754,39 @@
         <v>794</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E80" s="5">
-        <v>19991656931</v>
+        <v>19981614616</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>221</v>
+        <v>794</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E81" s="5">
-        <v>19974074239</v>
+        <v>19981354844</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="7" t="s">
@@ -4803,45 +4795,47 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>224</v>
+        <v>794</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="E82" s="5">
-        <v>19983550284</v>
+        <v>19998119589</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>227</v>
+        <v>794</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="E83" s="5">
-        <v>19983838478</v>
+        <v>19991656931</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>762</v>
@@ -4849,38 +4843,44 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="5">
+        <v>19974074239</v>
+      </c>
       <c r="F84" s="4" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5">
+        <v>19983550284</v>
+      </c>
       <c r="F85" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="6" t="s">
@@ -4889,42 +4889,42 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>750</v>
+        <v>228</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5">
+        <v>19983838478</v>
+      </c>
       <c r="F86" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H86" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87" s="5">
-        <v>6796723326</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="6" t="s">
@@ -4933,20 +4933,18 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="5">
-        <v>19981999121</v>
-      </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="4" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="6" t="s">
@@ -4958,39 +4956,39 @@
         <v>241</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>244</v>
+        <v>750</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="5">
-        <v>19995447306</v>
-      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="H89" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="E90" s="5">
-        <v>19974100212</v>
+        <v>6796723326</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="6" t="s">
@@ -4999,112 +4997,110 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5">
+        <v>19981999121</v>
+      </c>
       <c r="F91" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>760</v>
+        <v>40</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="6" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>254</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>19991517458</v>
+        <v>19995447306</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>19997331433</v>
+        <v>19974100212</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" s="5">
-        <v>19991558081</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E95" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="E95" s="5">
+        <v>19991517458</v>
+      </c>
       <c r="F95" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="7" t="s">
@@ -5119,18 +5115,16 @@
         <v>256</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>19982254000</v>
+        <v>19997331433</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="7" t="s">
         <v>762</v>
       </c>
@@ -5143,18 +5137,18 @@
         <v>256</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="E97" s="5">
-        <v>19997331433</v>
+        <v>19991558081</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G97" s="4"/>
       <c r="H97" s="7" t="s">
         <v>762</v>
       </c>
@@ -5167,14 +5161,14 @@
         <v>256</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5">
-        <v>19996049074</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="5"/>
       <c r="F98" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="7" t="s">
@@ -5188,17 +5182,19 @@
       <c r="B99" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="C99" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>19383429</v>
+        <v>19982254000</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="H99" s="7" t="s">
         <v>762</v>
       </c>
@@ -5211,18 +5207,18 @@
         <v>256</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>19982182</v>
+        <v>19997331433</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G100" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="H100" s="7" t="s">
         <v>762</v>
       </c>
@@ -5232,19 +5228,17 @@
         <v>256</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>277</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>19997197564</v>
+        <v>19996049074</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="7" t="s">
@@ -5253,88 +5247,92 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D102" s="4">
-        <v>3936.3072999999999</v>
+        <v>256</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="E102" s="5">
-        <v>1939356190</v>
+        <v>19383429</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="E103" s="5">
-        <v>19971197515</v>
+        <v>19982182</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D104" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E104" s="5">
-        <v>19987208820</v>
+        <v>19997197564</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D105" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D105" s="4">
+        <v>3936.3072999999999</v>
+      </c>
       <c r="E105" s="5">
-        <v>19996322904</v>
+        <v>1939356190</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="6" t="s">
@@ -5343,24 +5341,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>19971689885</v>
+        <v>19971197515</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>292</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G106" s="4"/>
       <c r="H106" s="6" t="s">
         <v>762</v>
       </c>
@@ -5373,14 +5369,14 @@
         <v>286</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>19987021223</v>
+        <v>19987208820</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="6" t="s">
@@ -5389,20 +5385,20 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>19987450251</v>
+        <v>19996322904</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="6" t="s">
@@ -5411,44 +5407,44 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>19997160608</v>
+        <v>19971689885</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G109" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H109" s="6" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>296</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>19978973485</v>
+        <v>19987021223</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="6" t="s">
@@ -5463,14 +5459,14 @@
         <v>283</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>19989616668</v>
+        <v>19987450251</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="6" t="s">
@@ -5479,18 +5475,20 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D112" s="4"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5">
+        <v>19997160608</v>
+      </c>
       <c r="F112" s="4" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="6" t="s">
@@ -5499,22 +5497,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E113" s="5">
-        <v>19988881507</v>
+        <v>19978973485</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6" t="s">
@@ -5523,22 +5521,20 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>19988186434</v>
+        <v>19989616668</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="6" t="s">
@@ -5547,20 +5543,18 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="5">
-        <v>19992003165</v>
-      </c>
+      <c r="E115" s="5"/>
       <c r="F115" s="4" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="6" t="s">
@@ -5569,20 +5563,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>789</v>
+        <v>300</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="D116" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E116" s="5">
-        <v>19994944253</v>
+        <v>19988881507</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="6" t="s">
@@ -5591,20 +5587,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>789</v>
+        <v>302</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C117" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D117" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E117" s="5">
-        <v>19982768600</v>
+        <v>19988186434</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="6" t="s">
@@ -5613,20 +5611,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>818</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>19992113771</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>19992003165</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="6" t="s">
         <v>762</v>
       </c>
@@ -10024,6 +10024,9 @@
         <filter val="ok"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H310">
+      <sortCondition ref="A1:A310"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C147" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A618F-660A-164F-B074-3CBCE2106FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F0F71-CE8E-0143-8621-14340C650EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -1336,9 +1336,6 @@
     <t>Celso</t>
   </si>
   <si>
-    <t>Celso  .9798.0120</t>
-  </si>
-  <si>
     <t>Bia Pas 2M/Mariusa/Marcia</t>
   </si>
   <si>
@@ -2502,6 +2499,9 @@
   </si>
   <si>
     <t>Bolo de Rolo</t>
+  </si>
+  <si>
+    <t>(19) 99798-0120</t>
   </si>
 </sst>
 </file>
@@ -2942,8 +2942,8 @@
   <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,13 +2961,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2982,15 +2982,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3098,12 +3098,12 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -3120,12 +3120,12 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -3144,12 +3144,12 @@
         <v>27</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>28</v>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -3190,12 +3190,12 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>35</v>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>41</v>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>47</v>
@@ -3300,12 +3300,12 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>50</v>
@@ -3326,12 +3326,12 @@
         <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>50</v>
@@ -3344,12 +3344,12 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>50</v>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>50</v>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>60</v>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>60</v>
@@ -3424,12 +3424,12 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>197</v>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>310</v>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>313</v>
@@ -3488,18 +3488,18 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E25" s="5">
         <v>19992113771</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3618,7 +3618,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,7 +3642,7 @@
         <v>78</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3650,7 +3650,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>79</v>
@@ -3668,7 +3668,7 @@
         <v>82</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
         <v>89</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>108</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4018,12 +4018,12 @@
         <v>127</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>128</v>
@@ -4042,12 +4042,12 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>132</v>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>132</v>
@@ -4088,12 +4088,12 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>138</v>
@@ -4110,15 +4110,15 @@
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>215</v>
@@ -4132,15 +4132,15 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>216</v>
@@ -4154,15 +4154,15 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>217</v>
@@ -4178,15 +4178,15 @@
         <v>219</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>220</v>
@@ -4200,15 +4200,15 @@
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>129</v>
@@ -4224,15 +4224,15 @@
         <v>210</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>211</v>
@@ -4248,15 +4248,15 @@
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>214</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>155</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>167</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4478,12 +4478,12 @@
         <v>155</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>168</v>
@@ -4492,18 +4492,18 @@
         <v>169</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>168</v>
@@ -4516,27 +4516,27 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>89</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4629,10 +4629,10 @@
         <v>187</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4656,7 +4656,7 @@
         <v>191</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4702,12 +4702,12 @@
         <v>196</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>198</v>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>198</v>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>198</v>
@@ -4768,12 +4768,12 @@
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>198</v>
@@ -4790,12 +4790,12 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>203</v>
@@ -4814,12 +4814,12 @@
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>207</v>
@@ -4838,7 +4838,7 @@
         <v>209</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>238</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -4970,7 +4970,7 @@
         <v>240</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5080,7 +5080,7 @@
         <v>251</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5426,7 +5426,7 @@
         <v>292</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>322</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>330</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -6002,7 +6002,7 @@
         <v>346</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>174</v>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -6074,45 +6074,45 @@
         <v>367</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="E139" s="5">
         <v>19993251330</v>
@@ -6122,12 +6122,12 @@
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>372</v>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>372</v>
@@ -6162,12 +6162,12 @@
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>372</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6208,7 +6208,7 @@
         <v>330</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
         <v>382</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>388</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
@@ -6298,15 +6298,15 @@
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>338</v>
@@ -6322,15 +6322,15 @@
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>341</v>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>333</v>
@@ -6368,12 +6368,12 @@
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>333</v>
@@ -6390,12 +6390,12 @@
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>333</v>
@@ -6414,12 +6414,12 @@
         <v>196</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>390</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6596,11 +6596,11 @@
         <v>19983069292</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6670,56 +6670,56 @@
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
         <v>19995521215</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>422</v>
@@ -6740,12 +6740,12 @@
         <v>426</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>427</v>
@@ -6764,12 +6764,12 @@
         <v>430</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>427</v>
@@ -6777,31 +6777,29 @@
       <c r="C168" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="4"/>
+      <c r="E168" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E168" s="5">
-        <v>19970891250</v>
-      </c>
-      <c r="F168" s="4" t="s">
+      <c r="G168" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="H168" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
@@ -6812,15 +6810,15 @@
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>368</v>
@@ -6838,15 +6836,15 @@
         <v>370</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>371</v>
@@ -6858,85 +6856,85 @@
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
         <v>19995881539</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
         <v>19993419181</v>
       </c>
       <c r="F173" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="H173" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
         <v>19983990026</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -6948,15 +6946,15 @@
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
@@ -6966,71 +6964,71 @@
         <v>19987193408</v>
       </c>
       <c r="F176" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G176" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
         <v>19993413737</v>
       </c>
       <c r="F177" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G177" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G177" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="H177" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="5"/>
       <c r="F178" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="E179" s="5">
         <v>11996202178</v>
@@ -7040,42 +7038,42 @@
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
         <v>19991683732</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
@@ -7086,42 +7084,42 @@
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
         <v>19992924435</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="H182" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
@@ -7132,18 +7130,18 @@
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
@@ -7154,18 +7152,18 @@
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
@@ -7176,21 +7174,21 @@
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="E186" s="5">
         <v>19991943844</v>
@@ -7200,18 +7198,18 @@
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="5"/>
@@ -7220,18 +7218,18 @@
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>416</v>
@@ -7240,46 +7238,46 @@
         <v>19974029553</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C189" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="E189" s="5">
         <v>19998383259</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
@@ -7290,63 +7288,63 @@
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E191" s="5">
         <v>19997142750</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="5"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="D193" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="E193" s="5">
         <v>19999764748</v>
@@ -7356,15 +7354,15 @@
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -7372,23 +7370,23 @@
         <v>19996623390</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E195" s="5">
         <v>19997684981</v>
@@ -7398,21 +7396,21 @@
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="4" t="s">
@@ -7420,21 +7418,21 @@
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="D197" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="E197" s="5">
         <v>1938945766</v>
@@ -7443,44 +7441,44 @@
         <v>294</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="5"/>
       <c r="F198" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="E199" s="5">
         <v>19981950110</v>
@@ -7490,93 +7488,93 @@
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="E200" s="5">
         <v>19999281714</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="D201" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="E201" s="5">
         <v>1933182928</v>
       </c>
       <c r="F201" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G201" s="4" t="s">
-        <v>505</v>
-      </c>
       <c r="H201" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
         <v>19994491033</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="4" t="s">
@@ -7584,88 +7582,88 @@
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
         <v>19981999121</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="D205" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="E205" s="5">
         <v>1999143786</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="D206" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="E206" s="5">
         <v>19984040203</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
@@ -7676,18 +7674,18 @@
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
@@ -7700,18 +7698,18 @@
         <v>108</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
@@ -7724,18 +7722,18 @@
         <v>251</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="5"/>
@@ -7744,18 +7742,18 @@
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
@@ -7766,18 +7764,18 @@
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
@@ -7790,44 +7788,44 @@
         <v>188</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="D213" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="E213" s="5">
         <v>19996205599</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="5"/>
@@ -7836,21 +7834,21 @@
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="D215" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="E215" s="5">
         <v>19975413838</v>
@@ -7860,45 +7858,45 @@
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
         <v>19999482072</v>
       </c>
       <c r="F216" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G216" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="H216" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="D217" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="E217" s="5">
         <v>19991094585</v>
@@ -7908,43 +7906,43 @@
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E218" s="5">
         <v>1938752655</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C219" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="E219" s="5">
         <v>19997947989</v>
@@ -7954,62 +7952,62 @@
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="D220" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
         <v>1933927524</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="5"/>
@@ -8018,18 +8016,18 @@
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
@@ -8040,15 +8038,15 @@
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>419</v>
@@ -8062,18 +8060,18 @@
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
@@ -8084,112 +8082,112 @@
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
         <v>19998914675</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
         <v>19992366598</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
         <v>19994777732</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E229" s="5">
         <v>19983397673</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
@@ -8200,40 +8198,40 @@
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
         <v>19989361257</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
@@ -8244,18 +8242,18 @@
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
@@ -8266,18 +8264,18 @@
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
@@ -8288,67 +8286,67 @@
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
         <v>19996918282</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
         <v>19989384836</v>
       </c>
       <c r="F236" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G236" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G236" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="H236" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C237" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="E237" s="5">
         <v>19983671900</v>
@@ -8358,67 +8356,67 @@
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="D238" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="E238" s="5">
         <v>19981766205</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
         <v>19997122002</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C240" s="4" t="s">
+      <c r="D240" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="E240" s="5">
         <v>9181623568</v>
@@ -8428,21 +8426,21 @@
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C241" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D241" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="E241" s="5">
         <v>19996785936</v>
@@ -8452,44 +8450,44 @@
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C242" s="4" t="s">
+      <c r="D242" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="E242" s="5">
         <v>19971075809</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
@@ -8500,18 +8498,18 @@
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
@@ -8522,18 +8520,18 @@
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
@@ -8544,18 +8542,18 @@
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
@@ -8566,18 +8564,18 @@
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
@@ -8588,82 +8586,82 @@
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="5"/>
       <c r="F248" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
         <v>19997467644</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
         <v>19988219734</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
@@ -8674,82 +8672,82 @@
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
         <v>19991744783</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="5"/>
       <c r="F253" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="D254" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="5"/>
@@ -8758,18 +8756,18 @@
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
@@ -8780,18 +8778,18 @@
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
@@ -8802,40 +8800,40 @@
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
         <v>19981285216</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="5">
@@ -8845,70 +8843,70 @@
         <v>206</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C260" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D260" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="E260" s="5">
         <v>19989436892</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E261" s="5">
         <v>19997341650</v>
       </c>
       <c r="F261" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G261" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G261" s="4" t="s">
-        <v>577</v>
-      </c>
       <c r="H261" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E262" s="5">
         <v>19991129199</v>
@@ -8918,206 +8916,206 @@
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C263" s="4" t="s">
+      <c r="D263" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="E263" s="5">
         <v>19991558624</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C264" s="4" t="s">
+      <c r="D264" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="E264" s="5">
         <v>19996132209</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C265" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="E265" s="5">
         <v>19988563936</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="D266" s="4"/>
       <c r="E266" s="5">
         <v>19999839019</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="5"/>
       <c r="F267" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G267" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="D268" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="E268" s="5">
         <v>11994721855</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B269" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>672</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="5">
         <v>19993772262</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E270" s="5">
         <v>19997570737</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G270" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="5">
@@ -9128,18 +9126,18 @@
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="5">
@@ -9149,24 +9147,24 @@
         <v>229</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C273" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>681</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="4" t="s">
@@ -9174,45 +9172,45 @@
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C274" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="E274" s="5">
         <v>19971000078</v>
       </c>
       <c r="F274" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G274" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G274" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="H274" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E275" s="5">
         <v>19996532656</v>
@@ -9222,18 +9220,18 @@
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="5">
@@ -9244,21 +9242,21 @@
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C277" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="E277" s="5">
         <v>19997203049</v>
@@ -9268,21 +9266,21 @@
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="D278" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="E278" s="5">
         <v>19989560366</v>
@@ -9291,68 +9289,68 @@
         <v>100</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C279" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="E279" s="5">
         <v>19997698086</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C280" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>697</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>698</v>
       </c>
       <c r="E280" s="5">
         <v>19997861827</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4" t="s">
@@ -9366,21 +9364,21 @@
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C282" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D282" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="E282" s="5">
         <v>19982386822</v>
@@ -9389,21 +9387,21 @@
         <v>43</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="5">
@@ -9414,12 +9412,12 @@
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>117</v>
@@ -9434,19 +9432,19 @@
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E285" s="5">
         <v>19987814978</v>
@@ -9455,21 +9453,21 @@
         <v>137</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>706</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="5">
@@ -9479,89 +9477,89 @@
         <v>137</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="5">
         <v>19994106988</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="5">
         <v>19989645385</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="5">
@@ -9572,12 +9570,12 @@
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>236</v>
@@ -9585,46 +9583,46 @@
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="C293" s="4" t="s">
+      <c r="D293" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="E293" s="5">
         <v>1938348079</v>
@@ -9634,290 +9632,290 @@
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="C294" s="4" t="s">
+      <c r="D294" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="E294" s="5">
         <v>19997630860</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="5"/>
       <c r="F295" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>717</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>718</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="5">
         <v>19997054080</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="5">
         <v>3592480284</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="5">
         <v>19974061580</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="5">
         <v>19997892388</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="5">
         <v>19992144704</v>
       </c>
       <c r="F300" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G300" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G300" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="H300" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="5">
         <v>19992679775</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G301" s="4"/>
       <c r="H301" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="5">
         <v>19975734486</v>
       </c>
       <c r="F302" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G302" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G302" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="H302" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="D303" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>739</v>
       </c>
       <c r="E303" s="5">
         <v>19993480608</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E304" s="5">
         <v>19992837841</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E305" s="5">
         <v>19991857696</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="5">
@@ -9928,60 +9926,60 @@
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>744</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="5">
         <v>19994915696</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>269</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="5"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="D309" s="4"/>
       <c r="E309" s="5">
@@ -9992,18 +9990,18 @@
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="5">
@@ -10014,7 +10012,7 @@
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/docs/plan_prestadores/contatos_2M.xlsx
+++ b/docs/plan_prestadores/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/docs/plan_prestadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640929F8-F14E-5C43-B828-8DACB4691748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C27AF-57A6-374E-82A1-98C0DDD86587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" activeTab="1" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Novo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Novo!$A$1:$D$742</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Novo!$A$1:$D$744</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$310</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="1688">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -5069,9 +5069,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gilson </t>
-  </si>
-  <si>
-    <t>Veículos  Estética Autom.</t>
   </si>
   <si>
     <r>
@@ -5310,7 +5307,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12714,11 +12711,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18A5495-1CC6-B847-8236-65702FE35F12}">
-  <dimension ref="A1:D745"/>
+  <dimension ref="A1:D744"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D745"/>
+      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -14303,10 +14300,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>1683</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>1684</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="9">
@@ -15456,7 +15453,7 @@
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="21" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -15712,7 +15709,7 @@
         <v>274</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -16767,10 +16764,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="23" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B328" s="23" t="s">
         <v>1685</v>
-      </c>
-      <c r="B328" s="23" t="s">
-        <v>1686</v>
       </c>
       <c r="C328" s="23"/>
       <c r="D328" s="9">
@@ -17222,14 +17219,14 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="23" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B364" s="23" t="s">
         <v>1625</v>
       </c>
       <c r="C364" s="23"/>
       <c r="D364" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -18172,7 +18169,7 @@
         <v>1318</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -20582,7 +20579,7 @@
       </c>
       <c r="C632" s="11"/>
       <c r="D632" s="21" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
@@ -21132,7 +21129,7 @@
         <v>1585</v>
       </c>
       <c r="D675" s="9" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
@@ -21674,7 +21671,7 @@
         <v>1622</v>
       </c>
       <c r="B719" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C719" s="11"/>
       <c r="D719" s="9">
@@ -21697,26 +21694,25 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="11" t="s">
-        <v>1675</v>
+        <v>1626</v>
       </c>
       <c r="B721" s="11" t="s">
-        <v>1625</v>
+        <v>158</v>
       </c>
       <c r="C721" s="12"/>
       <c r="D721" s="9">
-        <v>19997393917</v>
+        <v>19996119754</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="11" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B722" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C722" s="12"/>
-      <c r="D722" s="9">
-        <v>19996119754</v>
+        <v>1628</v>
+      </c>
+      <c r="C722" s="11" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
@@ -21724,10 +21720,10 @@
         <v>1627</v>
       </c>
       <c r="B723" s="11" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C723" s="11" t="s">
-        <v>1629</v>
+        <v>1630</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
@@ -21735,22 +21731,23 @@
         <v>1627</v>
       </c>
       <c r="B724" s="11" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C724" s="12" t="s">
-        <v>1631</v>
+        <v>1632</v>
+      </c>
+      <c r="C724" s="11"/>
+      <c r="D724" s="9">
+        <v>19993913214</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="11" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="B725" s="11" t="s">
-        <v>1632</v>
+        <v>149</v>
       </c>
       <c r="C725" s="11"/>
       <c r="D725" s="9">
-        <v>19993913214</v>
+        <v>19993628716</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
@@ -21758,35 +21755,37 @@
         <v>1633</v>
       </c>
       <c r="B726" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C726" s="11"/>
-      <c r="D726" s="9">
-        <v>19993628716</v>
+      <c r="D726" s="9" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="11" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B727" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C727" s="11"/>
-      <c r="D727" s="9" t="s">
-        <v>1681</v>
+        <v>1634</v>
+      </c>
+      <c r="B727" s="17"/>
+      <c r="C727" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D727" s="9">
+        <v>19994999498</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="11" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B728" s="17"/>
-      <c r="C728" s="11" t="s">
-        <v>1635</v>
+        <v>1637</v>
+      </c>
+      <c r="B728" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C728" s="11">
+        <v>3875.6569</v>
       </c>
       <c r="D728" s="9">
-        <v>19994999498</v>
+        <v>19989652090</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -21794,22 +21793,18 @@
         <v>1637</v>
       </c>
       <c r="B729" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C729" s="11">
-        <v>3875.6569</v>
-      </c>
+        <v>1639</v>
+      </c>
+      <c r="C729" s="11"/>
       <c r="D729" s="9">
-        <v>19989652090</v>
+        <v>19998006372</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="11" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B730" s="11" t="s">
-        <v>1639</v>
-      </c>
+        <v>1636</v>
+      </c>
+      <c r="B730" s="11"/>
       <c r="C730" s="11"/>
       <c r="D730" s="9">
         <v>19998006372</v>
@@ -21817,12 +21812,14 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" s="11" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B731" s="11"/>
+        <v>1640</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>1641</v>
+      </c>
       <c r="C731" s="11"/>
       <c r="D731" s="9">
-        <v>19998006372</v>
+        <v>19974110807</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
@@ -21830,11 +21827,11 @@
         <v>1640</v>
       </c>
       <c r="B732" s="11" t="s">
-        <v>1641</v>
+        <v>1594</v>
       </c>
       <c r="C732" s="11"/>
       <c r="D732" s="9">
-        <v>19974110807</v>
+        <v>19997957888</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
@@ -21842,11 +21839,11 @@
         <v>1640</v>
       </c>
       <c r="B733" s="11" t="s">
-        <v>1594</v>
+        <v>366</v>
       </c>
       <c r="C733" s="11"/>
       <c r="D733" s="9">
-        <v>19997957888</v>
+        <v>19974202908</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
@@ -21854,25 +21851,25 @@
         <v>1640</v>
       </c>
       <c r="B734" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C734" s="11"/>
+        <v>1642</v>
+      </c>
+      <c r="C734" s="11" t="s">
+        <v>546</v>
+      </c>
       <c r="D734" s="9">
-        <v>19974202908</v>
+        <v>19974024702</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="11" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B735" s="11" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C735" s="11" t="s">
-        <v>546</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="C735" s="11"/>
       <c r="D735" s="9">
-        <v>19974024702</v>
+        <v>19999905759</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -21880,11 +21877,11 @@
         <v>1643</v>
       </c>
       <c r="B736" s="11" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C736" s="11"/>
       <c r="D736" s="9">
-        <v>19999905759</v>
+        <v>1996830874</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -21892,11 +21889,13 @@
         <v>1643</v>
       </c>
       <c r="B737" s="11" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C737" s="11"/>
+        <v>1646</v>
+      </c>
+      <c r="C737" s="11" t="s">
+        <v>1259</v>
+      </c>
       <c r="D737" s="9">
-        <v>1996830874</v>
+        <v>19982800120</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
@@ -21904,71 +21903,69 @@
         <v>1643</v>
       </c>
       <c r="B738" s="11" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C738" s="11" t="s">
-        <v>1259</v>
+        <v>1648</v>
       </c>
       <c r="D738" s="9">
-        <v>19982800120</v>
+        <v>19991940296</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="11" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="B739" s="11" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C739" s="11" t="s">
-        <v>1648</v>
-      </c>
+        <v>1650</v>
+      </c>
+      <c r="C739" s="11"/>
       <c r="D739" s="9">
-        <v>19991940296</v>
+        <v>19991316203</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="11" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B740" s="11" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C740" s="11"/>
       <c r="D740" s="9">
-        <v>19991316203</v>
+        <v>19989081184</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="11" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B741" s="11" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C741" s="11"/>
       <c r="D741" s="9">
-        <v>19989081184</v>
+        <v>19991284373</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A742" s="11" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B742" s="11" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C742" s="11"/>
-      <c r="D742" s="9">
-        <v>19991284373</v>
+      <c r="A742" s="24" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B742" s="24" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C742" s="24"/>
+      <c r="D742" s="9" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="24" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B743" s="24" t="s">
-        <v>1657</v>
+        <v>1313</v>
       </c>
       <c r="C743" s="24"/>
       <c r="D743" s="9" t="s">
@@ -21977,34 +21974,18 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="24" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B744" s="24" t="s">
-        <v>1313</v>
+        <v>1659</v>
       </c>
       <c r="C744" s="24"/>
       <c r="D744" s="9" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="24" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B745" s="24" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C745" s="24"/>
-      <c r="D745" s="9" t="s">
-        <v>1661</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D742" xr:uid="{E18A5495-1CC6-B847-8236-65702FE35F12}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D745">
-      <sortCondition ref="A1:A745"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D744" xr:uid="{E18A5495-1CC6-B847-8236-65702FE35F12}"/>
   <hyperlinks>
     <hyperlink ref="C45" r:id="rId1" display="http://www.goomer.app/" xr:uid="{8C8B11B0-C700-8742-8DD4-BBC409B2344D}"/>
     <hyperlink ref="B82" r:id="rId2" display="https://festivalsabores/" xr:uid="{B1257EBF-513C-B54B-8E44-C7C2486F00A6}"/>
